--- a/Modelos/Modelo 1/Modelo 1.xlsx
+++ b/Modelos/Modelo 1/Modelo 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5D9F12-9593-4A24-8637-6966A257841D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F22506-B663-4FA3-9898-B331C9D6035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Epoch</t>
   </si>
@@ -124,64 +124,58 @@
     <t>Qtd</t>
   </si>
   <si>
-    <t>O modelo acerta a maioria das previsões, mas ainda tem dificuldades em identificar todos os casos desta label.</t>
-  </si>
-  <si>
     <t>Muito Alta</t>
-  </si>
-  <si>
-    <t>O modelo acerta muitas previsões e é capaz de identificar totalmente esta label, mas com precisão média.</t>
   </si>
   <si>
     <t>Baixo</t>
   </si>
   <si>
-    <t>Tal como as labels 1 a 5 e 7 a 11, o modelo não identifica nenhum caso, resultando numa falta de performance.</t>
-  </si>
-  <si>
     <t>Boa</t>
   </si>
   <si>
-    <t>O modelo mostra um desempenho alto, com boas taxas de precisão e recuperação.</t>
-  </si>
-  <si>
-    <t>O modelo tem muito alta precisão, mas baixa recuperação,o que indica que acerta muitas previsões quando classifica, mas não captura todos os casos da label.</t>
-  </si>
-  <si>
-    <t>Tal como as labels 1 a 5, o modelo não identifica nenhum caso, resultando numa falta de performance.</t>
-  </si>
-  <si>
-    <t>Apesar da muito alta exatidão, o modelo não identifica nenhum  caso destas labels, o que indica que o modelo não está a aprender a generalizar para estas labels.</t>
-  </si>
-  <si>
-    <t>O modelo acerta a maioria das previsões, mas falha em capturar os casos da label adequadamente.</t>
-  </si>
-  <si>
-    <t>Tal como as labels 1 a 5, 7 a 11 e 13 a 19 , o modelo não identifica nenhum caso, resultando numa falta de performance.</t>
-  </si>
-  <si>
-    <t>O modelo está a funcionar bem para esta label, capturando a maioria dos casos.</t>
-  </si>
-  <si>
     <t>Muito Baixo</t>
-  </si>
-  <si>
-    <t>Embora a precisão seja alta, o modelo está a falhar  na captura da maioria dos casos.</t>
-  </si>
-  <si>
-    <t>Um dos melhores resultados o que significa que o modelo está a conseguir identificar bem esta label.</t>
-  </si>
-  <si>
-    <t>Tal como as labels 1 a 5, 7 a 11 e 13 a 19... , o modelo não identifica nenhum caso, resultando numa falta de performance.</t>
-  </si>
-  <si>
-    <t>Muito alta exatidão, mas não é capaz de reconhecer os casos da label.</t>
   </si>
   <si>
     <t>Teste Loss</t>
   </si>
   <si>
     <t>Teste Accuracy</t>
+  </si>
+  <si>
+    <t>O modelo acerta a maioria das previsões para esta label, mas apresenta desafios na identificação correta de todos os casos.</t>
+  </si>
+  <si>
+    <t>Embora o modelo tenha uma exatidão aparentemente muito alta, falha completamente em identificar e classificar as casos desta label, resultando em 0 casos corretos.</t>
+  </si>
+  <si>
+    <t>O modelo destaca-se ao identificar a maioria dos casos desta label, com uma exatidão e recuperação muito altas. No entanto, a precisão média indica que ainda há espaço para melhoria.</t>
+  </si>
+  <si>
+    <t>O modelo destaca-se em termos de exatidão e precisão, acertando a maioria das previsões corretas. No entanto, a baixa recuperação indica dificuldades significativas em identificar todos os casos da label.</t>
+  </si>
+  <si>
+    <t>O modelo demonstra um desempenho robusto com alta exatidão, boa precisão e boa recuperação. Significa que o modelo não apenas acerta a maioria das previsões, mas também é eficaz em identificar a maioria dos casos relevantes da label.</t>
+  </si>
+  <si>
+    <t>Embora o modelo tenha uma exatidão muito alta, apresenta dificuldades significativas em identificar e classificar corretamente os casos desta label. A baixa precisão e recuperação indicam que o modelo raramente acerta quando prevê esta label.</t>
+  </si>
+  <si>
+    <t>Embora o modelo tenha uma exatidão muito alta, apresenta dificuldades significativas em identificar e classificar corretamente os casos desta label. A baixa precisão e recuperação indicam que o modelo raramente acerta quando prevê esta label</t>
+  </si>
+  <si>
+    <t>O modelo está a acertar a maioria das previsões com muito alta precisão, mas tem dificuldade em capturar todos os casos da label, como é indicado pela recuperação média.</t>
+  </si>
+  <si>
+    <t>O modelo é muito bom em prever esta label quando o faz, mas falha em detetar a maioria dos casos.</t>
+  </si>
+  <si>
+    <t>Embora o modelo acerte a maioria das previsões, tem dificuldades em prever corretamente todos os casos desta label, o que prejudica seu desempenho em termo de recuperação.</t>
+  </si>
+  <si>
+    <t>Embora o modelo tenha uma exatidão muito alta, tem dificuldade em identificar corretamente os casos desta label. O desempenho é fraco tanto em precisão quanto em recuperação.</t>
+  </si>
+  <si>
+    <t>O modelo é eficaz ao lidar com esta label, sendo capaz de capturar a maioria dos casos e faz previsões precisas.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -303,11 +297,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -325,9 +374,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -340,7 +386,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -351,9 +396,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,6 +406,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -391,7 +463,258 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -734,6 +1057,33 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}" name="Tabela1" displayName="Tabela1" ref="A1:J44" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J44" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Label" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1053,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188DAC9-D099-48DC-9AB3-F6EB09FDB47A}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1252,25 +1602,25 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="26">
+        <v>23</v>
+      </c>
+      <c r="B12" s="35">
         <v>22.608657836913999</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="26">
+        <v>24</v>
+      </c>
+      <c r="B13" s="35">
         <v>0.75579595565795898</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1400,60 +1750,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A3FDBD-7C69-45E8-9D25-BDE932A4141A}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="132.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.54296875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="212.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
+      <c r="A2" s="23">
         <v>0</v>
       </c>
       <c r="B2" s="2">
@@ -1468,31 +1821,31 @@
       <c r="E2" s="2">
         <v>0.64</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="19">
         <v>114</v>
       </c>
-      <c r="G2" s="13" t="str" cm="1">
+      <c r="G2" s="12" t="str" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H2" s="13" t="str" cm="1">
+      <c r="H2" s="12" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="I2" s="13" t="str" cm="1">
+      <c r="I2" s="12" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="J2" s="13" t="str" cm="1">
+      <c r="J2" s="24" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>19</v>
+      <c r="K2" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="16">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="2">
@@ -1507,31 +1860,31 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="20">
         <v>13</v>
       </c>
-      <c r="G3" s="13" t="str" cm="1">
+      <c r="G3" s="12" t="str" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(AND(B3&lt;=1,B3&gt;=0.95),"Muito Alta",AND(B3&lt;0.95,B3&gt;=0.9),"Alta",AND(B3&lt;0.9,B3&gt;=0.7),"Boa",AND(B3&lt;0.7,B3&gt;=0.5),"Médio",AND(B3&lt;0.5,B3&gt;=0.25),"Baixo",AND(B3&lt;0.25,B3&gt;0),"Muito Baixo",B3=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H3" s="13" t="str" cm="1">
+      <c r="H3" s="12" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(AND(C3&lt;=1,C3&gt;=0.95),"Muito Alta",AND(C3&lt;0.95,C3&gt;=0.9),"Alta",AND(C3&lt;0.9,C3&gt;=0.7),"Boa",AND(C3&lt;0.7,C3&gt;=0.5),"Médio",AND(C3&lt;0.5,C3&gt;=0.25),"Baixo",AND(C3&lt;0.25,C3&gt;0),"Muito Baixo",C3=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I3" s="13" t="str" cm="1">
+      <c r="I3" s="12" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(AND(D3&lt;=1,D3&gt;=0.95),"Muito Alta",AND(D3&lt;0.95,D3&gt;=0.9),"Alta",AND(D3&lt;0.9,D3&gt;=0.7),"Boa",AND(D3&lt;0.7,D3&gt;=0.5),"Médio",AND(D3&lt;0.5,D3&gt;=0.25),"Baixo",AND(D3&lt;0.25,D3&gt;0),"Muito Baixo",D3=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J3" s="13" t="str" cm="1">
+      <c r="J3" s="24" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.IFS(AND(E3&lt;=1,E3&gt;=0.95),"Muito Alta",AND(E3&lt;0.95,E3&gt;=0.9),"Alta",AND(E3&lt;0.9,E3&gt;=0.7),"Boa",AND(E3&lt;0.7,E3&gt;=0.5),"Médio",AND(E3&lt;0.5,E3&gt;=0.25),"Baixo",AND(E3&lt;0.25,E3&gt;0),"Muito Baixo",E3=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>28</v>
+      <c r="K3" s="39" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
       <c r="B4" s="2">
@@ -1546,29 +1899,29 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="20">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="str" cm="1">
+      <c r="G4" s="12" t="str" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(AND(B4&lt;=1,B4&gt;=0.95),"Muito Alta",AND(B4&lt;0.95,B4&gt;=0.9),"Alta",AND(B4&lt;0.9,B4&gt;=0.7),"Boa",AND(B4&lt;0.7,B4&gt;=0.5),"Médio",AND(B4&lt;0.5,B4&gt;=0.25),"Baixo",AND(B4&lt;0.25,B4&gt;0),"Muito Baixo",B4=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H4" s="13" t="str" cm="1">
+      <c r="H4" s="12" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(AND(C4&lt;=1,C4&gt;=0.95),"Muito Alta",AND(C4&lt;0.95,C4&gt;=0.9),"Alta",AND(C4&lt;0.9,C4&gt;=0.7),"Boa",AND(C4&lt;0.7,C4&gt;=0.5),"Médio",AND(C4&lt;0.5,C4&gt;=0.25),"Baixo",AND(C4&lt;0.25,C4&gt;0),"Muito Baixo",C4=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I4" s="13" t="str" cm="1">
+      <c r="I4" s="12" t="str" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(AND(D4&lt;=1,D4&gt;=0.95),"Muito Alta",AND(D4&lt;0.95,D4&gt;=0.9),"Alta",AND(D4&lt;0.9,D4&gt;=0.7),"Boa",AND(D4&lt;0.7,D4&gt;=0.5),"Médio",AND(D4&lt;0.5,D4&gt;=0.25),"Baixo",AND(D4&lt;0.25,D4&gt;0),"Muito Baixo",D4=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J4" s="13" t="str" cm="1">
+      <c r="J4" s="24" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K4" s="31"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="16">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -1583,29 +1936,29 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>19</v>
       </c>
-      <c r="G5" s="13" t="str" cm="1">
+      <c r="G5" s="12" t="str" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(AND(B5&lt;=1,B5&gt;=0.95),"Muito Alta",AND(B5&lt;0.95,B5&gt;=0.9),"Alta",AND(B5&lt;0.9,B5&gt;=0.7),"Boa",AND(B5&lt;0.7,B5&gt;=0.5),"Médio",AND(B5&lt;0.5,B5&gt;=0.25),"Baixo",AND(B5&lt;0.25,B5&gt;0),"Muito Baixo",B5=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H5" s="13" t="str" cm="1">
+      <c r="H5" s="12" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(AND(C5&lt;=1,C5&gt;=0.95),"Muito Alta",AND(C5&lt;0.95,C5&gt;=0.9),"Alta",AND(C5&lt;0.9,C5&gt;=0.7),"Boa",AND(C5&lt;0.7,C5&gt;=0.5),"Médio",AND(C5&lt;0.5,C5&gt;=0.25),"Baixo",AND(C5&lt;0.25,C5&gt;0),"Muito Baixo",C5=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I5" s="13" t="str" cm="1">
+      <c r="I5" s="12" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J5" s="13" t="str" cm="1">
+      <c r="J5" s="24" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.IFS(AND(E5&lt;=1,E5&gt;=0.95),"Muito Alta",AND(E5&lt;0.95,E5&gt;=0.9),"Alta",AND(E5&lt;0.9,E5&gt;=0.7),"Boa",AND(E5&lt;0.7,E5&gt;=0.5),"Médio",AND(E5&lt;0.5,E5&gt;=0.25),"Baixo",AND(E5&lt;0.25,E5&gt;0),"Muito Baixo",E5=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="16">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
       <c r="B6" s="2">
@@ -1620,29 +1973,29 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>20</v>
       </c>
-      <c r="G6" s="13" t="str" cm="1">
+      <c r="G6" s="12" t="str" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(AND(B6&lt;=1,B6&gt;=0.95),"Muito Alta",AND(B6&lt;0.95,B6&gt;=0.9),"Alta",AND(B6&lt;0.9,B6&gt;=0.7),"Boa",AND(B6&lt;0.7,B6&gt;=0.5),"Médio",AND(B6&lt;0.5,B6&gt;=0.25),"Baixo",AND(B6&lt;0.25,B6&gt;0),"Muito Baixo",B6=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H6" s="13" t="str" cm="1">
+      <c r="H6" s="12" t="str" cm="1">
         <f t="array" ref="H6">_xlfn.IFS(AND(C6&lt;=1,C6&gt;=0.95),"Muito Alta",AND(C6&lt;0.95,C6&gt;=0.9),"Alta",AND(C6&lt;0.9,C6&gt;=0.7),"Boa",AND(C6&lt;0.7,C6&gt;=0.5),"Médio",AND(C6&lt;0.5,C6&gt;=0.25),"Baixo",AND(C6&lt;0.25,C6&gt;0),"Muito Baixo",C6=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I6" s="13" t="str" cm="1">
+      <c r="I6" s="12" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(AND(D6&lt;=1,D6&gt;=0.95),"Muito Alta",AND(D6&lt;0.95,D6&gt;=0.9),"Alta",AND(D6&lt;0.9,D6&gt;=0.7),"Boa",AND(D6&lt;0.7,D6&gt;=0.5),"Médio",AND(D6&lt;0.5,D6&gt;=0.25),"Baixo",AND(D6&lt;0.25,D6&gt;0),"Muito Baixo",D6=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J6" s="13" t="str" cm="1">
+      <c r="J6" s="24" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.IFS(AND(E6&lt;=1,E6&gt;=0.95),"Muito Alta",AND(E6&lt;0.95,E6&gt;=0.9),"Alta",AND(E6&lt;0.9,E6&gt;=0.7),"Boa",AND(E6&lt;0.7,E6&gt;=0.5),"Médio",AND(E6&lt;0.5,E6&gt;=0.25),"Baixo",AND(E6&lt;0.25,E6&gt;0),"Muito Baixo",E6=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K6" s="31"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7" s="2">
@@ -1657,29 +2010,29 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13" t="str" cm="1">
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12" t="str" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(AND(B7&lt;=1,B7&gt;=0.95),"Muito Alta",AND(B7&lt;0.95,B7&gt;=0.9),"Alta",AND(B7&lt;0.9,B7&gt;=0.7),"Boa",AND(B7&lt;0.7,B7&gt;=0.5),"Médio",AND(B7&lt;0.5,B7&gt;=0.25),"Baixo",AND(B7&lt;0.25,B7&gt;0),"Muito Baixo",B7=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H7" s="13" t="str" cm="1">
+      <c r="H7" s="12" t="str" cm="1">
         <f t="array" ref="H7">_xlfn.IFS(AND(C7&lt;=1,C7&gt;=0.95),"Muito Alta",AND(C7&lt;0.95,C7&gt;=0.9),"Alta",AND(C7&lt;0.9,C7&gt;=0.7),"Boa",AND(C7&lt;0.7,C7&gt;=0.5),"Médio",AND(C7&lt;0.5,C7&gt;=0.25),"Baixo",AND(C7&lt;0.25,C7&gt;0),"Muito Baixo",C7=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I7" s="13" t="str" cm="1">
+      <c r="I7" s="12" t="str" cm="1">
         <f t="array" ref="I7">_xlfn.IFS(AND(D7&lt;=1,D7&gt;=0.95),"Muito Alta",AND(D7&lt;0.95,D7&gt;=0.9),"Alta",AND(D7&lt;0.9,D7&gt;=0.7),"Boa",AND(D7&lt;0.7,D7&gt;=0.5),"Médio",AND(D7&lt;0.5,D7&gt;=0.25),"Baixo",AND(D7&lt;0.25,D7&gt;0),"Muito Baixo",D7=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J7" s="13" t="str" cm="1">
+      <c r="J7" s="24" t="str" cm="1">
         <f t="array" ref="J7">_xlfn.IFS(AND(E7&lt;=1,E7&gt;=0.95),"Muito Alta",AND(E7&lt;0.95,E7&gt;=0.9),"Alta",AND(E7&lt;0.9,E7&gt;=0.7),"Boa",AND(E7&lt;0.7,E7&gt;=0.5),"Médio",AND(E7&lt;0.5,E7&gt;=0.25),"Baixo",AND(E7&lt;0.25,E7&gt;0),"Muito Baixo",E7=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
       <c r="B8" s="2">
@@ -1694,31 +2047,31 @@
       <c r="E8" s="2">
         <v>0.69767441860465118</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>140</v>
       </c>
-      <c r="G8" s="13" t="str" cm="1">
+      <c r="G8" s="12" t="str" cm="1">
         <f t="array" ref="G8">_xlfn.IFS(AND(B8&lt;=1,B8&gt;=0.95),"Muito Alta",AND(B8&lt;0.95,B8&gt;=0.9),"Alta",AND(B8&lt;0.9,B8&gt;=0.7),"Boa",AND(B8&lt;0.7,B8&gt;=0.5),"Médio",AND(B8&lt;0.5,B8&gt;=0.25),"Baixo",AND(B8&lt;0.25,B8&gt;0),"Muito Baixo",B8=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H8" s="13" t="str" cm="1">
+      <c r="H8" s="12" t="str" cm="1">
         <f t="array" ref="H8">_xlfn.IFS(AND(C8&lt;=1,C8&gt;=0.95),"Muito Alta",AND(C8&lt;0.95,C8&gt;=0.9),"Alta",AND(C8&lt;0.9,C8&gt;=0.7),"Boa",AND(C8&lt;0.7,C8&gt;=0.5),"Médio",AND(C8&lt;0.5,C8&gt;=0.25),"Baixo",AND(C8&lt;0.25,C8&gt;0),"Muito Baixo",C8=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="I8" s="13" t="str" cm="1">
+      <c r="I8" s="12" t="str" cm="1">
         <f t="array" ref="I8">_xlfn.IFS(AND(D8&lt;=1,D8&gt;=0.95),"Muito Alta",AND(D8&lt;0.95,D8&gt;=0.9),"Alta",AND(D8&lt;0.9,D8&gt;=0.7),"Boa",AND(D8&lt;0.7,D8&gt;=0.5),"Médio",AND(D8&lt;0.5,D8&gt;=0.25),"Baixo",AND(D8&lt;0.25,D8&gt;0),"Muito Baixo",D8=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="J8" s="13" t="str" cm="1">
+      <c r="J8" s="24" t="str" cm="1">
         <f t="array" ref="J8">_xlfn.IFS(AND(E8&lt;=1,E8&gt;=0.95),"Muito Alta",AND(E8&lt;0.95,E8&gt;=0.9),"Alta",AND(E8&lt;0.9,E8&gt;=0.7),"Boa",AND(E8&lt;0.7,E8&gt;=0.5),"Médio",AND(E8&lt;0.5,E8&gt;=0.25),"Baixo",AND(E8&lt;0.25,E8&gt;0),"Muito Baixo",E8=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>21</v>
+      <c r="K8" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="16">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
       <c r="B9" s="2">
@@ -1733,31 +2086,31 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="20">
         <v>7</v>
       </c>
-      <c r="G9" s="13" t="str" cm="1">
+      <c r="G9" s="12" t="str" cm="1">
         <f t="array" ref="G9">_xlfn.IFS(AND(B9&lt;=1,B9&gt;=0.95),"Muito Alta",AND(B9&lt;0.95,B9&gt;=0.9),"Alta",AND(B9&lt;0.9,B9&gt;=0.7),"Boa",AND(B9&lt;0.7,B9&gt;=0.5),"Médio",AND(B9&lt;0.5,B9&gt;=0.25),"Baixo",AND(B9&lt;0.25,B9&gt;0),"Muito Baixo",B9=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H9" s="13" t="str" cm="1">
+      <c r="H9" s="12" t="str" cm="1">
         <f t="array" ref="H9">_xlfn.IFS(AND(C9&lt;=1,C9&gt;=0.95),"Muito Alta",AND(C9&lt;0.95,C9&gt;=0.9),"Alta",AND(C9&lt;0.9,C9&gt;=0.7),"Boa",AND(C9&lt;0.7,C9&gt;=0.5),"Médio",AND(C9&lt;0.5,C9&gt;=0.25),"Baixo",AND(C9&lt;0.25,C9&gt;0),"Muito Baixo",C9=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I9" s="13" t="str" cm="1">
+      <c r="I9" s="12" t="str" cm="1">
         <f t="array" ref="I9">_xlfn.IFS(AND(D9&lt;=1,D9&gt;=0.95),"Muito Alta",AND(D9&lt;0.95,D9&gt;=0.9),"Alta",AND(D9&lt;0.9,D9&gt;=0.7),"Boa",AND(D9&lt;0.7,D9&gt;=0.5),"Médio",AND(D9&lt;0.5,D9&gt;=0.25),"Baixo",AND(D9&lt;0.25,D9&gt;0),"Muito Baixo",D9=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J9" s="13" t="str" cm="1">
+      <c r="J9" s="24" t="str" cm="1">
         <f t="array" ref="J9">_xlfn.IFS(AND(E9&lt;=1,E9&gt;=0.95),"Muito Alta",AND(E9&lt;0.95,E9&gt;=0.9),"Alta",AND(E9&lt;0.9,E9&gt;=0.7),"Boa",AND(E9&lt;0.7,E9&gt;=0.5),"Médio",AND(E9&lt;0.5,E9&gt;=0.25),"Baixo",AND(E9&lt;0.25,E9&gt;0),"Muito Baixo",E9=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K9" s="27" t="s">
-        <v>27</v>
+      <c r="K9" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
       <c r="B10" s="2">
@@ -1772,29 +2125,29 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="23">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="str" cm="1">
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="str" cm="1">
         <f t="array" ref="G10">_xlfn.IFS(AND(B10&lt;=1,B10&gt;=0.95),"Muito Alta",AND(B10&lt;0.95,B10&gt;=0.9),"Alta",AND(B10&lt;0.9,B10&gt;=0.7),"Boa",AND(B10&lt;0.7,B10&gt;=0.5),"Médio",AND(B10&lt;0.5,B10&gt;=0.25),"Baixo",AND(B10&lt;0.25,B10&gt;0),"Muito Baixo",B10=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H10" s="13" t="str" cm="1">
+      <c r="H10" s="12" t="str" cm="1">
         <f t="array" ref="H10">_xlfn.IFS(AND(C10&lt;=1,C10&gt;=0.95),"Muito Alta",AND(C10&lt;0.95,C10&gt;=0.9),"Alta",AND(C10&lt;0.9,C10&gt;=0.7),"Boa",AND(C10&lt;0.7,C10&gt;=0.5),"Médio",AND(C10&lt;0.5,C10&gt;=0.25),"Baixo",AND(C10&lt;0.25,C10&gt;0),"Muito Baixo",C10=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I10" s="13" t="str" cm="1">
+      <c r="I10" s="12" t="str" cm="1">
         <f t="array" ref="I10">_xlfn.IFS(AND(D10&lt;=1,D10&gt;=0.95),"Muito Alta",AND(D10&lt;0.95,D10&gt;=0.9),"Alta",AND(D10&lt;0.9,D10&gt;=0.7),"Boa",AND(D10&lt;0.7,D10&gt;=0.5),"Médio",AND(D10&lt;0.5,D10&gt;=0.25),"Baixo",AND(D10&lt;0.25,D10&gt;0),"Muito Baixo",D10=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J10" s="13" t="str" cm="1">
+      <c r="J10" s="24" t="str" cm="1">
         <f t="array" ref="J10">_xlfn.IFS(AND(E10&lt;=1,E10&gt;=0.95),"Muito Alta",AND(E10&lt;0.95,E10&gt;=0.9),"Alta",AND(E10&lt;0.9,E10&gt;=0.7),"Boa",AND(E10&lt;0.7,E10&gt;=0.5),"Médio",AND(E10&lt;0.5,E10&gt;=0.25),"Baixo",AND(E10&lt;0.25,E10&gt;0),"Muito Baixo",E10=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K10" s="28"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
       <c r="B11" s="2">
@@ -1809,29 +2162,29 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>10</v>
       </c>
-      <c r="G11" s="13" t="str" cm="1">
+      <c r="G11" s="12" t="str" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(AND(B11&lt;=1,B11&gt;=0.95),"Muito Alta",AND(B11&lt;0.95,B11&gt;=0.9),"Alta",AND(B11&lt;0.9,B11&gt;=0.7),"Boa",AND(B11&lt;0.7,B11&gt;=0.5),"Médio",AND(B11&lt;0.5,B11&gt;=0.25),"Baixo",AND(B11&lt;0.25,B11&gt;0),"Muito Baixo",B11=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H11" s="13" t="str" cm="1">
+      <c r="H11" s="12" t="str" cm="1">
         <f t="array" ref="H11">_xlfn.IFS(AND(C11&lt;=1,C11&gt;=0.95),"Muito Alta",AND(C11&lt;0.95,C11&gt;=0.9),"Alta",AND(C11&lt;0.9,C11&gt;=0.7),"Boa",AND(C11&lt;0.7,C11&gt;=0.5),"Médio",AND(C11&lt;0.5,C11&gt;=0.25),"Baixo",AND(C11&lt;0.25,C11&gt;0),"Muito Baixo",C11=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I11" s="13" t="str" cm="1">
+      <c r="I11" s="12" t="str" cm="1">
         <f t="array" ref="I11">_xlfn.IFS(AND(D11&lt;=1,D11&gt;=0.95),"Muito Alta",AND(D11&lt;0.95,D11&gt;=0.9),"Alta",AND(D11&lt;0.9,D11&gt;=0.7),"Boa",AND(D11&lt;0.7,D11&gt;=0.5),"Médio",AND(D11&lt;0.5,D11&gt;=0.25),"Baixo",AND(D11&lt;0.25,D11&gt;0),"Muito Baixo",D11=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J11" s="13" t="str" cm="1">
+      <c r="J11" s="24" t="str" cm="1">
         <f t="array" ref="J11">_xlfn.IFS(AND(E11&lt;=1,E11&gt;=0.95),"Muito Alta",AND(E11&lt;0.95,E11&gt;=0.9),"Alta",AND(E11&lt;0.9,E11&gt;=0.7),"Boa",AND(E11&lt;0.7,E11&gt;=0.5),"Médio",AND(E11&lt;0.5,E11&gt;=0.25),"Baixo",AND(E11&lt;0.25,E11&gt;0),"Muito Baixo",E11=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K11" s="28"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
       <c r="B12" s="2">
@@ -1846,29 +2199,29 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="13" t="str" cm="1">
+      <c r="G12" s="12" t="str" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(AND(B12&lt;=1,B12&gt;=0.95),"Muito Alta",AND(B12&lt;0.95,B12&gt;=0.9),"Alta",AND(B12&lt;0.9,B12&gt;=0.7),"Boa",AND(B12&lt;0.7,B12&gt;=0.5),"Médio",AND(B12&lt;0.5,B12&gt;=0.25),"Baixo",AND(B12&lt;0.25,B12&gt;0),"Muito Baixo",B12=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H12" s="13" t="str" cm="1">
+      <c r="H12" s="12" t="str" cm="1">
         <f t="array" ref="H12">_xlfn.IFS(AND(C12&lt;=1,C12&gt;=0.95),"Muito Alta",AND(C12&lt;0.95,C12&gt;=0.9),"Alta",AND(C12&lt;0.9,C12&gt;=0.7),"Boa",AND(C12&lt;0.7,C12&gt;=0.5),"Médio",AND(C12&lt;0.5,C12&gt;=0.25),"Baixo",AND(C12&lt;0.25,C12&gt;0),"Muito Baixo",C12=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I12" s="13" t="str" cm="1">
+      <c r="I12" s="12" t="str" cm="1">
         <f t="array" ref="I12">_xlfn.IFS(AND(D12&lt;=1,D12&gt;=0.95),"Muito Alta",AND(D12&lt;0.95,D12&gt;=0.9),"Alta",AND(D12&lt;0.9,D12&gt;=0.7),"Boa",AND(D12&lt;0.7,D12&gt;=0.5),"Médio",AND(D12&lt;0.5,D12&gt;=0.25),"Baixo",AND(D12&lt;0.25,D12&gt;0),"Muito Baixo",D12=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J12" s="13" t="str" cm="1">
+      <c r="J12" s="24" t="str" cm="1">
         <f t="array" ref="J12">_xlfn.IFS(AND(E12&lt;=1,E12&gt;=0.95),"Muito Alta",AND(E12&lt;0.95,E12&gt;=0.9),"Alta",AND(E12&lt;0.9,E12&gt;=0.7),"Boa",AND(E12&lt;0.7,E12&gt;=0.5),"Médio",AND(E12&lt;0.5,E12&gt;=0.25),"Baixo",AND(E12&lt;0.25,E12&gt;0),"Muito Baixo",E12=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K12" s="28"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
       <c r="B13" s="2">
@@ -1883,29 +2236,29 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="20">
         <v>20</v>
       </c>
-      <c r="G13" s="13" t="str" cm="1">
+      <c r="G13" s="12" t="str" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(AND(B13&lt;=1,B13&gt;=0.95),"Muito Alta",AND(B13&lt;0.95,B13&gt;=0.9),"Alta",AND(B13&lt;0.9,B13&gt;=0.7),"Boa",AND(B13&lt;0.7,B13&gt;=0.5),"Médio",AND(B13&lt;0.5,B13&gt;=0.25),"Baixo",AND(B13&lt;0.25,B13&gt;0),"Muito Baixo",B13=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H13" s="13" t="str" cm="1">
+      <c r="H13" s="12" t="str" cm="1">
         <f t="array" ref="H13">_xlfn.IFS(AND(C13&lt;=1,C13&gt;=0.95),"Muito Alta",AND(C13&lt;0.95,C13&gt;=0.9),"Alta",AND(C13&lt;0.9,C13&gt;=0.7),"Boa",AND(C13&lt;0.7,C13&gt;=0.5),"Médio",AND(C13&lt;0.5,C13&gt;=0.25),"Baixo",AND(C13&lt;0.25,C13&gt;0),"Muito Baixo",C13=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I13" s="13" t="str" cm="1">
+      <c r="I13" s="12" t="str" cm="1">
         <f t="array" ref="I13">_xlfn.IFS(AND(D13&lt;=1,D13&gt;=0.95),"Muito Alta",AND(D13&lt;0.95,D13&gt;=0.9),"Alta",AND(D13&lt;0.9,D13&gt;=0.7),"Boa",AND(D13&lt;0.7,D13&gt;=0.5),"Médio",AND(D13&lt;0.5,D13&gt;=0.25),"Baixo",AND(D13&lt;0.25,D13&gt;0),"Muito Baixo",D13=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J13" s="13" t="str" cm="1">
+      <c r="J13" s="24" t="str" cm="1">
         <f t="array" ref="J13">_xlfn.IFS(AND(E13&lt;=1,E13&gt;=0.95),"Muito Alta",AND(E13&lt;0.95,E13&gt;=0.9),"Alta",AND(E13&lt;0.9,E13&gt;=0.7),"Boa",AND(E13&lt;0.7,E13&gt;=0.5),"Médio",AND(E13&lt;0.5,E13&gt;=0.25),"Baixo",AND(E13&lt;0.25,E13&gt;0),"Muito Baixo",E13=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="16">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -1920,31 +2273,31 @@
       <c r="E14" s="2">
         <v>0.61538461538461531</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="20">
         <v>65</v>
       </c>
-      <c r="G14" s="13" t="str" cm="1">
+      <c r="G14" s="12" t="str" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(AND(B14&lt;=1,B14&gt;=0.95),"Muito Alta",AND(B14&lt;0.95,B14&gt;=0.9),"Alta",AND(B14&lt;0.9,B14&gt;=0.7),"Boa",AND(B14&lt;0.7,B14&gt;=0.5),"Médio",AND(B14&lt;0.5,B14&gt;=0.25),"Baixo",AND(B14&lt;0.25,B14&gt;0),"Muito Baixo",B14=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H14" s="13" t="str" cm="1">
+      <c r="H14" s="12" t="str" cm="1">
         <f t="array" ref="H14">_xlfn.IFS(AND(C14&lt;=1,C14&gt;=0.95),"Muito Alta",AND(C14&lt;0.95,C14&gt;=0.9),"Alta",AND(C14&lt;0.9,C14&gt;=0.7),"Boa",AND(C14&lt;0.7,C14&gt;=0.5),"Médio",AND(C14&lt;0.5,C14&gt;=0.25),"Baixo",AND(C14&lt;0.25,C14&gt;0),"Muito Baixo",C14=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="I14" s="13" t="str" cm="1">
+      <c r="I14" s="12" t="str" cm="1">
         <f t="array" ref="I14">_xlfn.IFS(AND(D14&lt;=1,D14&gt;=0.95),"Muito Alta",AND(D14&lt;0.95,D14&gt;=0.9),"Alta",AND(D14&lt;0.9,D14&gt;=0.7),"Boa",AND(D14&lt;0.7,D14&gt;=0.5),"Médio",AND(D14&lt;0.5,D14&gt;=0.25),"Baixo",AND(D14&lt;0.25,D14&gt;0),"Muito Baixo",D14=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="J14" s="13" t="str" cm="1">
+      <c r="J14" s="24" t="str" cm="1">
         <f t="array" ref="J14">_xlfn.IFS(AND(E14&lt;=1,E14&gt;=0.95),"Muito Alta",AND(E14&lt;0.95,E14&gt;=0.9),"Alta",AND(E14&lt;0.9,E14&gt;=0.7),"Boa",AND(E14&lt;0.7,E14&gt;=0.5),"Médio",AND(E14&lt;0.5,E14&gt;=0.25),"Baixo",AND(E14&lt;0.25,E14&gt;0),"Muito Baixo",E14=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>26</v>
+      <c r="K14" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="16">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
       <c r="B15" s="2">
@@ -1959,31 +2312,31 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <v>11</v>
       </c>
-      <c r="G15" s="13" t="str" cm="1">
+      <c r="G15" s="12" t="str" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(AND(B15&lt;=1,B15&gt;=0.95),"Muito Alta",AND(B15&lt;0.95,B15&gt;=0.9),"Alta",AND(B15&lt;0.9,B15&gt;=0.7),"Boa",AND(B15&lt;0.7,B15&gt;=0.5),"Médio",AND(B15&lt;0.5,B15&gt;=0.25),"Baixo",AND(B15&lt;0.25,B15&gt;0),"Muito Baixo",B15=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H15" s="13" t="str" cm="1">
+      <c r="H15" s="12" t="str" cm="1">
         <f t="array" ref="H15">_xlfn.IFS(AND(C15&lt;=1,C15&gt;=0.95),"Muito Alta",AND(C15&lt;0.95,C15&gt;=0.9),"Alta",AND(C15&lt;0.9,C15&gt;=0.7),"Boa",AND(C15&lt;0.7,C15&gt;=0.5),"Médio",AND(C15&lt;0.5,C15&gt;=0.25),"Baixo",AND(C15&lt;0.25,C15&gt;0),"Muito Baixo",C15=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I15" s="13" t="str" cm="1">
+      <c r="I15" s="12" t="str" cm="1">
         <f t="array" ref="I15">_xlfn.IFS(AND(D15&lt;=1,D15&gt;=0.95),"Muito Alta",AND(D15&lt;0.95,D15&gt;=0.9),"Alta",AND(D15&lt;0.9,D15&gt;=0.7),"Boa",AND(D15&lt;0.7,D15&gt;=0.5),"Médio",AND(D15&lt;0.5,D15&gt;=0.25),"Baixo",AND(D15&lt;0.25,D15&gt;0),"Muito Baixo",D15=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J15" s="13" t="str" cm="1">
+      <c r="J15" s="24" t="str" cm="1">
         <f t="array" ref="J15">_xlfn.IFS(AND(E15&lt;=1,E15&gt;=0.95),"Muito Alta",AND(E15&lt;0.95,E15&gt;=0.9),"Alta",AND(E15&lt;0.9,E15&gt;=0.7),"Boa",AND(E15&lt;0.7,E15&gt;=0.5),"Médio",AND(E15&lt;0.5,E15&gt;=0.25),"Baixo",AND(E15&lt;0.25,E15&gt;0),"Muito Baixo",E15=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>23</v>
+      <c r="K15" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+      <c r="A16" s="23">
         <v>14</v>
       </c>
       <c r="B16" s="2">
@@ -1998,29 +2351,29 @@
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>16</v>
       </c>
-      <c r="G16" s="13" t="str" cm="1">
+      <c r="G16" s="12" t="str" cm="1">
         <f t="array" ref="G16">_xlfn.IFS(AND(B16&lt;=1,B16&gt;=0.95),"Muito Alta",AND(B16&lt;0.95,B16&gt;=0.9),"Alta",AND(B16&lt;0.9,B16&gt;=0.7),"Boa",AND(B16&lt;0.7,B16&gt;=0.5),"Médio",AND(B16&lt;0.5,B16&gt;=0.25),"Baixo",AND(B16&lt;0.25,B16&gt;0),"Muito Baixo",B16=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H16" s="13" t="str" cm="1">
+      <c r="H16" s="12" t="str" cm="1">
         <f t="array" ref="H16">_xlfn.IFS(AND(C16&lt;=1,C16&gt;=0.95),"Muito Alta",AND(C16&lt;0.95,C16&gt;=0.9),"Alta",AND(C16&lt;0.9,C16&gt;=0.7),"Boa",AND(C16&lt;0.7,C16&gt;=0.5),"Médio",AND(C16&lt;0.5,C16&gt;=0.25),"Baixo",AND(C16&lt;0.25,C16&gt;0),"Muito Baixo",C16=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I16" s="13" t="str" cm="1">
+      <c r="I16" s="12" t="str" cm="1">
         <f t="array" ref="I16">_xlfn.IFS(AND(D16&lt;=1,D16&gt;=0.95),"Muito Alta",AND(D16&lt;0.95,D16&gt;=0.9),"Alta",AND(D16&lt;0.9,D16&gt;=0.7),"Boa",AND(D16&lt;0.7,D16&gt;=0.5),"Médio",AND(D16&lt;0.5,D16&gt;=0.25),"Baixo",AND(D16&lt;0.25,D16&gt;0),"Muito Baixo",D16=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J16" s="13" t="str" cm="1">
+      <c r="J16" s="24" t="str" cm="1">
         <f t="array" ref="J16">_xlfn.IFS(AND(E16&lt;=1,E16&gt;=0.95),"Muito Alta",AND(E16&lt;0.95,E16&gt;=0.9),"Alta",AND(E16&lt;0.9,E16&gt;=0.7),"Boa",AND(E16&lt;0.7,E16&gt;=0.5),"Médio",AND(E16&lt;0.5,E16&gt;=0.25),"Baixo",AND(E16&lt;0.25,E16&gt;0),"Muito Baixo",E16=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K16" s="28"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="16">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" s="2">
@@ -2035,29 +2388,29 @@
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>4</v>
       </c>
-      <c r="G17" s="13" t="str" cm="1">
+      <c r="G17" s="12" t="str" cm="1">
         <f t="array" ref="G17">_xlfn.IFS(AND(B17&lt;=1,B17&gt;=0.95),"Muito Alta",AND(B17&lt;0.95,B17&gt;=0.9),"Alta",AND(B17&lt;0.9,B17&gt;=0.7),"Boa",AND(B17&lt;0.7,B17&gt;=0.5),"Médio",AND(B17&lt;0.5,B17&gt;=0.25),"Baixo",AND(B17&lt;0.25,B17&gt;0),"Muito Baixo",B17=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H17" s="13" t="str" cm="1">
+      <c r="H17" s="12" t="str" cm="1">
         <f t="array" ref="H17">_xlfn.IFS(AND(C17&lt;=1,C17&gt;=0.95),"Muito Alta",AND(C17&lt;0.95,C17&gt;=0.9),"Alta",AND(C17&lt;0.9,C17&gt;=0.7),"Boa",AND(C17&lt;0.7,C17&gt;=0.5),"Médio",AND(C17&lt;0.5,C17&gt;=0.25),"Baixo",AND(C17&lt;0.25,C17&gt;0),"Muito Baixo",C17=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I17" s="13" t="str" cm="1">
+      <c r="I17" s="12" t="str" cm="1">
         <f t="array" ref="I17">_xlfn.IFS(AND(D17&lt;=1,D17&gt;=0.95),"Muito Alta",AND(D17&lt;0.95,D17&gt;=0.9),"Alta",AND(D17&lt;0.9,D17&gt;=0.7),"Boa",AND(D17&lt;0.7,D17&gt;=0.5),"Médio",AND(D17&lt;0.5,D17&gt;=0.25),"Baixo",AND(D17&lt;0.25,D17&gt;0),"Muito Baixo",D17=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J17" s="13" t="str" cm="1">
+      <c r="J17" s="24" t="str" cm="1">
         <f t="array" ref="J17">_xlfn.IFS(AND(E17&lt;=1,E17&gt;=0.95),"Muito Alta",AND(E17&lt;0.95,E17&gt;=0.9),"Alta",AND(E17&lt;0.9,E17&gt;=0.7),"Boa",AND(E17&lt;0.7,E17&gt;=0.5),"Médio",AND(E17&lt;0.5,E17&gt;=0.25),"Baixo",AND(E17&lt;0.25,E17&gt;0),"Muito Baixo",E17=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K17" s="28"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="16">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
       <c r="B18" s="2">
@@ -2072,29 +2425,29 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="20">
         <v>2</v>
       </c>
-      <c r="G18" s="13" t="str" cm="1">
+      <c r="G18" s="12" t="str" cm="1">
         <f t="array" ref="G18">_xlfn.IFS(AND(B18&lt;=1,B18&gt;=0.95),"Muito Alta",AND(B18&lt;0.95,B18&gt;=0.9),"Alta",AND(B18&lt;0.9,B18&gt;=0.7),"Boa",AND(B18&lt;0.7,B18&gt;=0.5),"Médio",AND(B18&lt;0.5,B18&gt;=0.25),"Baixo",AND(B18&lt;0.25,B18&gt;0),"Muito Baixo",B18=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H18" s="13" t="str" cm="1">
+      <c r="H18" s="12" t="str" cm="1">
         <f t="array" ref="H18">_xlfn.IFS(AND(C18&lt;=1,C18&gt;=0.95),"Muito Alta",AND(C18&lt;0.95,C18&gt;=0.9),"Alta",AND(C18&lt;0.9,C18&gt;=0.7),"Boa",AND(C18&lt;0.7,C18&gt;=0.5),"Médio",AND(C18&lt;0.5,C18&gt;=0.25),"Baixo",AND(C18&lt;0.25,C18&gt;0),"Muito Baixo",C18=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I18" s="13" t="str" cm="1">
+      <c r="I18" s="12" t="str" cm="1">
         <f t="array" ref="I18">_xlfn.IFS(AND(D18&lt;=1,D18&gt;=0.95),"Muito Alta",AND(D18&lt;0.95,D18&gt;=0.9),"Alta",AND(D18&lt;0.9,D18&gt;=0.7),"Boa",AND(D18&lt;0.7,D18&gt;=0.5),"Médio",AND(D18&lt;0.5,D18&gt;=0.25),"Baixo",AND(D18&lt;0.25,D18&gt;0),"Muito Baixo",D18=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J18" s="13" t="str" cm="1">
+      <c r="J18" s="24" t="str" cm="1">
         <f t="array" ref="J18">_xlfn.IFS(AND(E18&lt;=1,E18&gt;=0.95),"Muito Alta",AND(E18&lt;0.95,E18&gt;=0.9),"Alta",AND(E18&lt;0.9,E18&gt;=0.7),"Boa",AND(E18&lt;0.7,E18&gt;=0.5),"Médio",AND(E18&lt;0.5,E18&gt;=0.25),"Baixo",AND(E18&lt;0.25,E18&gt;0),"Muito Baixo",E18=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K18" s="28"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="16">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
       <c r="B19" s="2">
@@ -2109,29 +2462,29 @@
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="20">
         <v>8</v>
       </c>
-      <c r="G19" s="13" t="str" cm="1">
+      <c r="G19" s="12" t="str" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(AND(B19&lt;=1,B19&gt;=0.95),"Muito Alta",AND(B19&lt;0.95,B19&gt;=0.9),"Alta",AND(B19&lt;0.9,B19&gt;=0.7),"Boa",AND(B19&lt;0.7,B19&gt;=0.5),"Médio",AND(B19&lt;0.5,B19&gt;=0.25),"Baixo",AND(B19&lt;0.25,B19&gt;0),"Muito Baixo",B19=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H19" s="13" t="str" cm="1">
+      <c r="H19" s="12" t="str" cm="1">
         <f t="array" ref="H19">_xlfn.IFS(AND(C19&lt;=1,C19&gt;=0.95),"Muito Alta",AND(C19&lt;0.95,C19&gt;=0.9),"Alta",AND(C19&lt;0.9,C19&gt;=0.7),"Boa",AND(C19&lt;0.7,C19&gt;=0.5),"Médio",AND(C19&lt;0.5,C19&gt;=0.25),"Baixo",AND(C19&lt;0.25,C19&gt;0),"Muito Baixo",C19=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I19" s="13" t="str" cm="1">
+      <c r="I19" s="12" t="str" cm="1">
         <f t="array" ref="I19">_xlfn.IFS(AND(D19&lt;=1,D19&gt;=0.95),"Muito Alta",AND(D19&lt;0.95,D19&gt;=0.9),"Alta",AND(D19&lt;0.9,D19&gt;=0.7),"Boa",AND(D19&lt;0.7,D19&gt;=0.5),"Médio",AND(D19&lt;0.5,D19&gt;=0.25),"Baixo",AND(D19&lt;0.25,D19&gt;0),"Muito Baixo",D19=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J19" s="13" t="str" cm="1">
+      <c r="J19" s="24" t="str" cm="1">
         <f t="array" ref="J19">_xlfn.IFS(AND(E19&lt;=1,E19&gt;=0.95),"Muito Alta",AND(E19&lt;0.95,E19&gt;=0.9),"Alta",AND(E19&lt;0.9,E19&gt;=0.7),"Boa",AND(E19&lt;0.7,E19&gt;=0.5),"Médio",AND(E19&lt;0.5,E19&gt;=0.25),"Baixo",AND(E19&lt;0.25,E19&gt;0),"Muito Baixo",E19=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K19" s="28"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
       <c r="B20" s="2">
@@ -2146,29 +2499,29 @@
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="23">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13" t="str" cm="1">
+      <c r="F20" s="20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12" t="str" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(AND(B20&lt;=1,B20&gt;=0.95),"Muito Alta",AND(B20&lt;0.95,B20&gt;=0.9),"Alta",AND(B20&lt;0.9,B20&gt;=0.7),"Boa",AND(B20&lt;0.7,B20&gt;=0.5),"Médio",AND(B20&lt;0.5,B20&gt;=0.25),"Baixo",AND(B20&lt;0.25,B20&gt;0),"Muito Baixo",B20=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H20" s="13" t="str" cm="1">
+      <c r="H20" s="12" t="str" cm="1">
         <f t="array" ref="H20">_xlfn.IFS(AND(C20&lt;=1,C20&gt;=0.95),"Muito Alta",AND(C20&lt;0.95,C20&gt;=0.9),"Alta",AND(C20&lt;0.9,C20&gt;=0.7),"Boa",AND(C20&lt;0.7,C20&gt;=0.5),"Médio",AND(C20&lt;0.5,C20&gt;=0.25),"Baixo",AND(C20&lt;0.25,C20&gt;0),"Muito Baixo",C20=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I20" s="13" t="str" cm="1">
+      <c r="I20" s="12" t="str" cm="1">
         <f t="array" ref="I20">_xlfn.IFS(AND(D20&lt;=1,D20&gt;=0.95),"Muito Alta",AND(D20&lt;0.95,D20&gt;=0.9),"Alta",AND(D20&lt;0.9,D20&gt;=0.7),"Boa",AND(D20&lt;0.7,D20&gt;=0.5),"Médio",AND(D20&lt;0.5,D20&gt;=0.25),"Baixo",AND(D20&lt;0.25,D20&gt;0),"Muito Baixo",D20=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J20" s="13" t="str" cm="1">
+      <c r="J20" s="24" t="str" cm="1">
         <f t="array" ref="J20">_xlfn.IFS(AND(E20&lt;=1,E20&gt;=0.95),"Muito Alta",AND(E20&lt;0.95,E20&gt;=0.9),"Alta",AND(E20&lt;0.9,E20&gt;=0.7),"Boa",AND(E20&lt;0.7,E20&gt;=0.5),"Médio",AND(E20&lt;0.5,E20&gt;=0.25),"Baixo",AND(E20&lt;0.25,E20&gt;0),"Muito Baixo",E20=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K20" s="28"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="16">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
       <c r="B21" s="2">
@@ -2183,29 +2536,29 @@
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13" t="str" cm="1">
+      <c r="F21" s="20">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="str" cm="1">
         <f t="array" ref="G21">_xlfn.IFS(AND(B21&lt;=1,B21&gt;=0.95),"Muito Alta",AND(B21&lt;0.95,B21&gt;=0.9),"Alta",AND(B21&lt;0.9,B21&gt;=0.7),"Boa",AND(B21&lt;0.7,B21&gt;=0.5),"Médio",AND(B21&lt;0.5,B21&gt;=0.25),"Baixo",AND(B21&lt;0.25,B21&gt;0),"Muito Baixo",B21=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H21" s="13" t="str" cm="1">
+      <c r="H21" s="12" t="str" cm="1">
         <f t="array" ref="H21">_xlfn.IFS(AND(C21&lt;=1,C21&gt;=0.95),"Muito Alta",AND(C21&lt;0.95,C21&gt;=0.9),"Alta",AND(C21&lt;0.9,C21&gt;=0.7),"Boa",AND(C21&lt;0.7,C21&gt;=0.5),"Médio",AND(C21&lt;0.5,C21&gt;=0.25),"Baixo",AND(C21&lt;0.25,C21&gt;0),"Muito Baixo",C21=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I21" s="13" t="str" cm="1">
+      <c r="I21" s="12" t="str" cm="1">
         <f t="array" ref="I21">_xlfn.IFS(AND(D21&lt;=1,D21&gt;=0.95),"Muito Alta",AND(D21&lt;0.95,D21&gt;=0.9),"Alta",AND(D21&lt;0.9,D21&gt;=0.7),"Boa",AND(D21&lt;0.7,D21&gt;=0.5),"Médio",AND(D21&lt;0.5,D21&gt;=0.25),"Baixo",AND(D21&lt;0.25,D21&gt;0),"Muito Baixo",D21=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J21" s="13" t="str" cm="1">
+      <c r="J21" s="24" t="str" cm="1">
         <f t="array" ref="J21">_xlfn.IFS(AND(E21&lt;=1,E21&gt;=0.95),"Muito Alta",AND(E21&lt;0.95,E21&gt;=0.9),"Alta",AND(E21&lt;0.9,E21&gt;=0.7),"Boa",AND(E21&lt;0.7,E21&gt;=0.5),"Médio",AND(E21&lt;0.5,E21&gt;=0.25),"Baixo",AND(E21&lt;0.25,E21&gt;0),"Muito Baixo",E21=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K21" s="29"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="16">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
       <c r="B22" s="2">
@@ -2220,31 +2573,31 @@
       <c r="E22" s="2">
         <v>0.74226804123711332</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="20">
         <v>979</v>
       </c>
-      <c r="G22" s="13" t="str" cm="1">
+      <c r="G22" s="12" t="str" cm="1">
         <f t="array" ref="G22">_xlfn.IFS(AND(B22&lt;=1,B22&gt;=0.95),"Muito Alta",AND(B22&lt;0.95,B22&gt;=0.9),"Alta",AND(B22&lt;0.9,B22&gt;=0.7),"Boa",AND(B22&lt;0.7,B22&gt;=0.5),"Médio",AND(B22&lt;0.5,B22&gt;=0.25),"Baixo",AND(B22&lt;0.25,B22&gt;0),"Muito Baixo",B22=0,"Zero")</f>
         <v>Alta</v>
       </c>
-      <c r="H22" s="13" t="str" cm="1">
+      <c r="H22" s="12" t="str" cm="1">
         <f t="array" ref="H22">_xlfn.IFS(AND(C22&lt;=1,C22&gt;=0.95),"Muito Alta",AND(C22&lt;0.95,C22&gt;=0.9),"Alta",AND(C22&lt;0.9,C22&gt;=0.7),"Boa",AND(C22&lt;0.7,C22&gt;=0.5),"Médio",AND(C22&lt;0.5,C22&gt;=0.25),"Baixo",AND(C22&lt;0.25,C22&gt;0),"Muito Baixo",C22=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="I22" s="13" t="str" cm="1">
+      <c r="I22" s="12" t="str" cm="1">
         <f t="array" ref="I22">_xlfn.IFS(AND(D22&lt;=1,D22&gt;=0.95),"Muito Alta",AND(D22&lt;0.95,D22&gt;=0.9),"Alta",AND(D22&lt;0.9,D22&gt;=0.7),"Boa",AND(D22&lt;0.7,D22&gt;=0.5),"Médio",AND(D22&lt;0.5,D22&gt;=0.25),"Baixo",AND(D22&lt;0.25,D22&gt;0),"Muito Baixo",D22=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="J22" s="13" t="str" cm="1">
+      <c r="J22" s="24" t="str" cm="1">
         <f t="array" ref="J22">_xlfn.IFS(AND(E22&lt;=1,E22&gt;=0.95),"Muito Alta",AND(E22&lt;0.95,E22&gt;=0.9),"Alta",AND(E22&lt;0.9,E22&gt;=0.7),"Boa",AND(E22&lt;0.7,E22&gt;=0.5),"Médio",AND(E22&lt;0.5,E22&gt;=0.25),"Baixo",AND(E22&lt;0.25,E22&gt;0),"Muito Baixo",E22=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>25</v>
+      <c r="K22" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="16">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
       <c r="B23" s="2">
@@ -2259,31 +2612,31 @@
       <c r="E23" s="2">
         <v>0.1</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="20">
         <v>119</v>
       </c>
-      <c r="G23" s="13" t="str" cm="1">
+      <c r="G23" s="12" t="str" cm="1">
         <f t="array" ref="G23">_xlfn.IFS(AND(B23&lt;=1,B23&gt;=0.95),"Muito Alta",AND(B23&lt;0.95,B23&gt;=0.9),"Alta",AND(B23&lt;0.9,B23&gt;=0.7),"Boa",AND(B23&lt;0.7,B23&gt;=0.5),"Médio",AND(B23&lt;0.5,B23&gt;=0.25),"Baixo",AND(B23&lt;0.25,B23&gt;0),"Muito Baixo",B23=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H23" s="13" t="str" cm="1">
+      <c r="H23" s="12" t="str" cm="1">
         <f t="array" ref="H23">_xlfn.IFS(AND(C23&lt;=1,C23&gt;=0.95),"Muito Alta",AND(C23&lt;0.95,C23&gt;=0.9),"Alta",AND(C23&lt;0.9,C23&gt;=0.7),"Boa",AND(C23&lt;0.7,C23&gt;=0.5),"Médio",AND(C23&lt;0.5,C23&gt;=0.25),"Baixo",AND(C23&lt;0.25,C23&gt;0),"Muito Baixo",C23=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="I23" s="13" t="str" cm="1">
+      <c r="I23" s="12" t="str" cm="1">
         <f t="array" ref="I23">_xlfn.IFS(AND(D23&lt;=1,D23&gt;=0.95),"Muito Alta",AND(D23&lt;0.95,D23&gt;=0.9),"Alta",AND(D23&lt;0.9,D23&gt;=0.7),"Boa",AND(D23&lt;0.7,D23&gt;=0.5),"Médio",AND(D23&lt;0.5,D23&gt;=0.25),"Baixo",AND(D23&lt;0.25,D23&gt;0),"Muito Baixo",D23=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="J23" s="13" t="str" cm="1">
+      <c r="J23" s="24" t="str" cm="1">
         <f t="array" ref="J23">_xlfn.IFS(AND(E23&lt;=1,E23&gt;=0.95),"Muito Alta",AND(E23&lt;0.95,E23&gt;=0.9),"Alta",AND(E23&lt;0.9,E23&gt;=0.7),"Boa",AND(E23&lt;0.7,E23&gt;=0.5),"Médio",AND(E23&lt;0.5,E23&gt;=0.25),"Baixo",AND(E23&lt;0.25,E23&gt;0),"Muito Baixo",E23=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>29</v>
+      <c r="K23" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="16">
+      <c r="A24" s="23">
         <v>22</v>
       </c>
       <c r="B24" s="2">
@@ -2298,31 +2651,31 @@
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="20">
         <v>8</v>
       </c>
-      <c r="G24" s="13" t="str" cm="1">
+      <c r="G24" s="12" t="str" cm="1">
         <f t="array" ref="G24">_xlfn.IFS(AND(B24&lt;=1,B24&gt;=0.95),"Muito Alta",AND(B24&lt;0.95,B24&gt;=0.9),"Alta",AND(B24&lt;0.9,B24&gt;=0.7),"Boa",AND(B24&lt;0.7,B24&gt;=0.5),"Médio",AND(B24&lt;0.5,B24&gt;=0.25),"Baixo",AND(B24&lt;0.25,B24&gt;0),"Muito Baixo",B24=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H24" s="13" t="str" cm="1">
+      <c r="H24" s="12" t="str" cm="1">
         <f t="array" ref="H24">_xlfn.IFS(AND(C24&lt;=1,C24&gt;=0.95),"Muito Alta",AND(C24&lt;0.95,C24&gt;=0.9),"Alta",AND(C24&lt;0.9,C24&gt;=0.7),"Boa",AND(C24&lt;0.7,C24&gt;=0.5),"Médio",AND(C24&lt;0.5,C24&gt;=0.25),"Baixo",AND(C24&lt;0.25,C24&gt;0),"Muito Baixo",C24=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I24" s="13" t="str" cm="1">
+      <c r="I24" s="12" t="str" cm="1">
         <f t="array" ref="I24">_xlfn.IFS(AND(D24&lt;=1,D24&gt;=0.95),"Muito Alta",AND(D24&lt;0.95,D24&gt;=0.9),"Alta",AND(D24&lt;0.9,D24&gt;=0.7),"Boa",AND(D24&lt;0.7,D24&gt;=0.5),"Médio",AND(D24&lt;0.5,D24&gt;=0.25),"Baixo",AND(D24&lt;0.25,D24&gt;0),"Muito Baixo",D24=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J24" s="13" t="str" cm="1">
+      <c r="J24" s="24" t="str" cm="1">
         <f t="array" ref="J24">_xlfn.IFS(AND(E24&lt;=1,E24&gt;=0.95),"Muito Alta",AND(E24&lt;0.95,E24&gt;=0.9),"Alta",AND(E24&lt;0.9,E24&gt;=0.7),"Boa",AND(E24&lt;0.7,E24&gt;=0.5),"Médio",AND(E24&lt;0.5,E24&gt;=0.25),"Baixo",AND(E24&lt;0.25,E24&gt;0),"Muito Baixo",E24=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K24" s="27" t="s">
-        <v>30</v>
+      <c r="K24" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="16">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
       <c r="B25" s="2">
@@ -2337,29 +2690,29 @@
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <v>4</v>
       </c>
-      <c r="G25" s="13" t="str" cm="1">
+      <c r="G25" s="12" t="str" cm="1">
         <f t="array" ref="G25">_xlfn.IFS(AND(B25&lt;=1,B25&gt;=0.95),"Muito Alta",AND(B25&lt;0.95,B25&gt;=0.9),"Alta",AND(B25&lt;0.9,B25&gt;=0.7),"Boa",AND(B25&lt;0.7,B25&gt;=0.5),"Médio",AND(B25&lt;0.5,B25&gt;=0.25),"Baixo",AND(B25&lt;0.25,B25&gt;0),"Muito Baixo",B25=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H25" s="13" t="str" cm="1">
+      <c r="H25" s="12" t="str" cm="1">
         <f t="array" ref="H25">_xlfn.IFS(AND(C25&lt;=1,C25&gt;=0.95),"Muito Alta",AND(C25&lt;0.95,C25&gt;=0.9),"Alta",AND(C25&lt;0.9,C25&gt;=0.7),"Boa",AND(C25&lt;0.7,C25&gt;=0.5),"Médio",AND(C25&lt;0.5,C25&gt;=0.25),"Baixo",AND(C25&lt;0.25,C25&gt;0),"Muito Baixo",C25=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I25" s="13" t="str" cm="1">
+      <c r="I25" s="12" t="str" cm="1">
         <f t="array" ref="I25">_xlfn.IFS(AND(D25&lt;=1,D25&gt;=0.95),"Muito Alta",AND(D25&lt;0.95,D25&gt;=0.9),"Alta",AND(D25&lt;0.9,D25&gt;=0.7),"Boa",AND(D25&lt;0.7,D25&gt;=0.5),"Médio",AND(D25&lt;0.5,D25&gt;=0.25),"Baixo",AND(D25&lt;0.25,D25&gt;0),"Muito Baixo",D25=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J25" s="13" t="str" cm="1">
+      <c r="J25" s="24" t="str" cm="1">
         <f t="array" ref="J25">_xlfn.IFS(AND(E25&lt;=1,E25&gt;=0.95),"Muito Alta",AND(E25&lt;0.95,E25&gt;=0.9),"Alta",AND(E25&lt;0.9,E25&gt;=0.7),"Boa",AND(E25&lt;0.7,E25&gt;=0.5),"Médio",AND(E25&lt;0.5,E25&gt;=0.25),"Baixo",AND(E25&lt;0.25,E25&gt;0),"Muito Baixo",E25=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K25" s="29"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="16">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
       <c r="B26" s="2">
@@ -2374,31 +2727,31 @@
       <c r="E26" s="2">
         <v>0.8</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="20">
         <v>58</v>
       </c>
-      <c r="G26" s="13" t="str" cm="1">
+      <c r="G26" s="12" t="str" cm="1">
         <f t="array" ref="G26">_xlfn.IFS(AND(B26&lt;=1,B26&gt;=0.95),"Muito Alta",AND(B26&lt;0.95,B26&gt;=0.9),"Alta",AND(B26&lt;0.9,B26&gt;=0.7),"Boa",AND(B26&lt;0.7,B26&gt;=0.5),"Médio",AND(B26&lt;0.5,B26&gt;=0.25),"Baixo",AND(B26&lt;0.25,B26&gt;0),"Muito Baixo",B26=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H26" s="13" t="str" cm="1">
+      <c r="H26" s="12" t="str" cm="1">
         <f t="array" ref="H26">_xlfn.IFS(AND(C26&lt;=1,C26&gt;=0.95),"Muito Alta",AND(C26&lt;0.95,C26&gt;=0.9),"Alta",AND(C26&lt;0.9,C26&gt;=0.7),"Boa",AND(C26&lt;0.7,C26&gt;=0.5),"Médio",AND(C26&lt;0.5,C26&gt;=0.25),"Baixo",AND(C26&lt;0.25,C26&gt;0),"Muito Baixo",C26=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="I26" s="13" t="str" cm="1">
+      <c r="I26" s="12" t="str" cm="1">
         <f t="array" ref="I26">_xlfn.IFS(AND(D26&lt;=1,D26&gt;=0.95),"Muito Alta",AND(D26&lt;0.95,D26&gt;=0.9),"Alta",AND(D26&lt;0.9,D26&gt;=0.7),"Boa",AND(D26&lt;0.7,D26&gt;=0.5),"Médio",AND(D26&lt;0.5,D26&gt;=0.25),"Baixo",AND(D26&lt;0.25,D26&gt;0),"Muito Baixo",D26=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="J26" s="13" t="str" cm="1">
+      <c r="J26" s="24" t="str" cm="1">
         <f t="array" ref="J26">_xlfn.IFS(AND(E26&lt;=1,E26&gt;=0.95),"Muito Alta",AND(E26&lt;0.95,E26&gt;=0.9),"Alta",AND(E26&lt;0.9,E26&gt;=0.7),"Boa",AND(E26&lt;0.7,E26&gt;=0.5),"Médio",AND(E26&lt;0.5,E26&gt;=0.25),"Baixo",AND(E26&lt;0.25,E26&gt;0),"Muito Baixo",E26=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>31</v>
+      <c r="K26" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="16">
+      <c r="A27" s="23">
         <v>25</v>
       </c>
       <c r="B27" s="2">
@@ -2413,31 +2766,31 @@
       <c r="E27" s="2">
         <v>0.25</v>
       </c>
-      <c r="F27" s="23">
+      <c r="F27" s="20">
         <v>60</v>
       </c>
-      <c r="G27" s="13" t="str" cm="1">
+      <c r="G27" s="12" t="str" cm="1">
         <f t="array" ref="G27">_xlfn.IFS(AND(B27&lt;=1,B27&gt;=0.95),"Muito Alta",AND(B27&lt;0.95,B27&gt;=0.9),"Alta",AND(B27&lt;0.9,B27&gt;=0.7),"Boa",AND(B27&lt;0.7,B27&gt;=0.5),"Médio",AND(B27&lt;0.5,B27&gt;=0.25),"Baixo",AND(B27&lt;0.25,B27&gt;0),"Muito Baixo",B27=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H27" s="13" t="str" cm="1">
+      <c r="H27" s="12" t="str" cm="1">
         <f t="array" ref="H27">_xlfn.IFS(AND(C27&lt;=1,C27&gt;=0.95),"Muito Alta",AND(C27&lt;0.95,C27&gt;=0.9),"Alta",AND(C27&lt;0.9,C27&gt;=0.7),"Boa",AND(C27&lt;0.7,C27&gt;=0.5),"Médio",AND(C27&lt;0.5,C27&gt;=0.25),"Baixo",AND(C27&lt;0.25,C27&gt;0),"Muito Baixo",C27=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="I27" s="13" t="str" cm="1">
+      <c r="I27" s="12" t="str" cm="1">
         <f t="array" ref="I27">_xlfn.IFS(AND(D27&lt;=1,D27&gt;=0.95),"Muito Alta",AND(D27&lt;0.95,D27&gt;=0.9),"Alta",AND(D27&lt;0.9,D27&gt;=0.7),"Boa",AND(D27&lt;0.7,D27&gt;=0.5),"Médio",AND(D27&lt;0.5,D27&gt;=0.25),"Baixo",AND(D27&lt;0.25,D27&gt;0),"Muito Baixo",D27=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="J27" s="13" t="str" cm="1">
+      <c r="J27" s="24" t="str" cm="1">
         <f t="array" ref="J27">_xlfn.IFS(AND(E27&lt;=1,E27&gt;=0.95),"Muito Alta",AND(E27&lt;0.95,E27&gt;=0.9),"Alta",AND(E27&lt;0.9,E27&gt;=0.7),"Boa",AND(E27&lt;0.7,E27&gt;=0.5),"Médio",AND(E27&lt;0.5,E27&gt;=0.25),"Baixo",AND(E27&lt;0.25,E27&gt;0),"Muito Baixo",E27=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="16">
+      <c r="A28" s="23">
         <v>26</v>
       </c>
       <c r="B28" s="2">
@@ -2452,31 +2805,31 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="20">
         <v>65</v>
       </c>
-      <c r="G28" s="13" t="str" cm="1">
+      <c r="G28" s="12" t="str" cm="1">
         <f t="array" ref="G28">_xlfn.IFS(AND(B28&lt;=1,B28&gt;=0.95),"Muito Alta",AND(B28&lt;0.95,B28&gt;=0.9),"Alta",AND(B28&lt;0.9,B28&gt;=0.7),"Boa",AND(B28&lt;0.7,B28&gt;=0.5),"Médio",AND(B28&lt;0.5,B28&gt;=0.25),"Baixo",AND(B28&lt;0.25,B28&gt;0),"Muito Baixo",B28=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H28" s="13" t="str" cm="1">
+      <c r="H28" s="12" t="str" cm="1">
         <f t="array" ref="H28">_xlfn.IFS(AND(C28&lt;=1,C28&gt;=0.95),"Muito Alta",AND(C28&lt;0.95,C28&gt;=0.9),"Alta",AND(C28&lt;0.9,C28&gt;=0.7),"Boa",AND(C28&lt;0.7,C28&gt;=0.5),"Médio",AND(C28&lt;0.5,C28&gt;=0.25),"Baixo",AND(C28&lt;0.25,C28&gt;0),"Muito Baixo",C28=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I28" s="13" t="str" cm="1">
+      <c r="I28" s="12" t="str" cm="1">
         <f t="array" ref="I28">_xlfn.IFS(AND(D28&lt;=1,D28&gt;=0.95),"Muito Alta",AND(D28&lt;0.95,D28&gt;=0.9),"Alta",AND(D28&lt;0.9,D28&gt;=0.7),"Boa",AND(D28&lt;0.7,D28&gt;=0.5),"Médio",AND(D28&lt;0.5,D28&gt;=0.25),"Baixo",AND(D28&lt;0.25,D28&gt;0),"Muito Baixo",D28=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J28" s="13" t="str" cm="1">
+      <c r="J28" s="24" t="str" cm="1">
         <f t="array" ref="J28">_xlfn.IFS(AND(E28&lt;=1,E28&gt;=0.95),"Muito Alta",AND(E28&lt;0.95,E28&gt;=0.9),"Alta",AND(E28&lt;0.9,E28&gt;=0.7),"Boa",AND(E28&lt;0.7,E28&gt;=0.5),"Médio",AND(E28&lt;0.5,E28&gt;=0.25),"Baixo",AND(E28&lt;0.25,E28&gt;0),"Muito Baixo",E28=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>35</v>
+      <c r="K28" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="16">
+      <c r="A29" s="23">
         <v>27</v>
       </c>
       <c r="B29" s="2">
@@ -2491,31 +2844,31 @@
       <c r="E29" s="2">
         <v>0.44444444444444442</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="20">
         <v>275</v>
       </c>
-      <c r="G29" s="13" t="str" cm="1">
+      <c r="G29" s="12" t="str" cm="1">
         <f t="array" ref="G29">_xlfn.IFS(AND(B29&lt;=1,B29&gt;=0.95),"Muito Alta",AND(B29&lt;0.95,B29&gt;=0.9),"Alta",AND(B29&lt;0.9,B29&gt;=0.7),"Boa",AND(B29&lt;0.7,B29&gt;=0.5),"Médio",AND(B29&lt;0.5,B29&gt;=0.25),"Baixo",AND(B29&lt;0.25,B29&gt;0),"Muito Baixo",B29=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H29" s="13" t="str" cm="1">
+      <c r="H29" s="12" t="str" cm="1">
         <f t="array" ref="H29">_xlfn.IFS(AND(C29&lt;=1,C29&gt;=0.95),"Muito Alta",AND(C29&lt;0.95,C29&gt;=0.9),"Alta",AND(C29&lt;0.9,C29&gt;=0.7),"Boa",AND(C29&lt;0.7,C29&gt;=0.5),"Médio",AND(C29&lt;0.5,C29&gt;=0.25),"Baixo",AND(C29&lt;0.25,C29&gt;0),"Muito Baixo",C29=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="I29" s="13" t="str" cm="1">
+      <c r="I29" s="12" t="str" cm="1">
         <f t="array" ref="I29">_xlfn.IFS(AND(D29&lt;=1,D29&gt;=0.95),"Muito Alta",AND(D29&lt;0.95,D29&gt;=0.9),"Alta",AND(D29&lt;0.9,D29&gt;=0.7),"Boa",AND(D29&lt;0.7,D29&gt;=0.5),"Médio",AND(D29&lt;0.5,D29&gt;=0.25),"Baixo",AND(D29&lt;0.25,D29&gt;0),"Muito Baixo",D29=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="J29" s="13" t="str" cm="1">
+      <c r="J29" s="24" t="str" cm="1">
         <f t="array" ref="J29">_xlfn.IFS(AND(E29&lt;=1,E29&gt;=0.95),"Muito Alta",AND(E29&lt;0.95,E29&gt;=0.9),"Alta",AND(E29&lt;0.9,E29&gt;=0.7),"Boa",AND(E29&lt;0.7,E29&gt;=0.5),"Médio",AND(E29&lt;0.5,E29&gt;=0.25),"Baixo",AND(E29&lt;0.25,E29&gt;0),"Muito Baixo",E29=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>36</v>
+      <c r="K29" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="16">
+      <c r="A30" s="23">
         <v>28</v>
       </c>
       <c r="B30" s="2">
@@ -2530,31 +2883,31 @@
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="20">
         <v>13</v>
       </c>
-      <c r="G30" s="13" t="str" cm="1">
+      <c r="G30" s="12" t="str" cm="1">
         <f t="array" ref="G30">_xlfn.IFS(AND(B30&lt;=1,B30&gt;=0.95),"Muito Alta",AND(B30&lt;0.95,B30&gt;=0.9),"Alta",AND(B30&lt;0.9,B30&gt;=0.7),"Boa",AND(B30&lt;0.7,B30&gt;=0.5),"Médio",AND(B30&lt;0.5,B30&gt;=0.25),"Baixo",AND(B30&lt;0.25,B30&gt;0),"Muito Baixo",B30=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H30" s="13" t="str" cm="1">
+      <c r="H30" s="12" t="str" cm="1">
         <f t="array" ref="H30">_xlfn.IFS(AND(C30&lt;=1,C30&gt;=0.95),"Muito Alta",AND(C30&lt;0.95,C30&gt;=0.9),"Alta",AND(C30&lt;0.9,C30&gt;=0.7),"Boa",AND(C30&lt;0.7,C30&gt;=0.5),"Médio",AND(C30&lt;0.5,C30&gt;=0.25),"Baixo",AND(C30&lt;0.25,C30&gt;0),"Muito Baixo",C30=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I30" s="13" t="str" cm="1">
+      <c r="I30" s="12" t="str" cm="1">
         <f t="array" ref="I30">_xlfn.IFS(AND(D30&lt;=1,D30&gt;=0.95),"Muito Alta",AND(D30&lt;0.95,D30&gt;=0.9),"Alta",AND(D30&lt;0.9,D30&gt;=0.7),"Boa",AND(D30&lt;0.7,D30&gt;=0.5),"Médio",AND(D30&lt;0.5,D30&gt;=0.25),"Baixo",AND(D30&lt;0.25,D30&gt;0),"Muito Baixo",D30=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J30" s="13" t="str" cm="1">
+      <c r="J30" s="24" t="str" cm="1">
         <f t="array" ref="J30">_xlfn.IFS(AND(E30&lt;=1,E30&gt;=0.95),"Muito Alta",AND(E30&lt;0.95,E30&gt;=0.9),"Alta",AND(E30&lt;0.9,E30&gt;=0.7),"Boa",AND(E30&lt;0.7,E30&gt;=0.5),"Médio",AND(E30&lt;0.5,E30&gt;=0.25),"Baixo",AND(E30&lt;0.25,E30&gt;0),"Muito Baixo",E30=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>35</v>
+      <c r="K30" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="16">
+      <c r="A31" s="23">
         <v>29</v>
       </c>
       <c r="B31" s="2">
@@ -2569,29 +2922,29 @@
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="20">
         <v>4</v>
       </c>
-      <c r="G31" s="13" t="str" cm="1">
+      <c r="G31" s="12" t="str" cm="1">
         <f t="array" ref="G31">_xlfn.IFS(AND(B31&lt;=1,B31&gt;=0.95),"Muito Alta",AND(B31&lt;0.95,B31&gt;=0.9),"Alta",AND(B31&lt;0.9,B31&gt;=0.7),"Boa",AND(B31&lt;0.7,B31&gt;=0.5),"Médio",AND(B31&lt;0.5,B31&gt;=0.25),"Baixo",AND(B31&lt;0.25,B31&gt;0),"Muito Baixo",B31=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H31" s="13" t="str" cm="1">
+      <c r="H31" s="12" t="str" cm="1">
         <f t="array" ref="H31">_xlfn.IFS(AND(C31&lt;=1,C31&gt;=0.95),"Muito Alta",AND(C31&lt;0.95,C31&gt;=0.9),"Alta",AND(C31&lt;0.9,C31&gt;=0.7),"Boa",AND(C31&lt;0.7,C31&gt;=0.5),"Médio",AND(C31&lt;0.5,C31&gt;=0.25),"Baixo",AND(C31&lt;0.25,C31&gt;0),"Muito Baixo",C31=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I31" s="13" t="str" cm="1">
+      <c r="I31" s="12" t="str" cm="1">
         <f t="array" ref="I31">_xlfn.IFS(AND(D31&lt;=1,D31&gt;=0.95),"Muito Alta",AND(D31&lt;0.95,D31&gt;=0.9),"Alta",AND(D31&lt;0.9,D31&gt;=0.7),"Boa",AND(D31&lt;0.7,D31&gt;=0.5),"Médio",AND(D31&lt;0.5,D31&gt;=0.25),"Baixo",AND(D31&lt;0.25,D31&gt;0),"Muito Baixo",D31=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J31" s="13" t="str" cm="1">
+      <c r="J31" s="24" t="str" cm="1">
         <f t="array" ref="J31">_xlfn.IFS(AND(E31&lt;=1,E31&gt;=0.95),"Muito Alta",AND(E31&lt;0.95,E31&gt;=0.9),"Alta",AND(E31&lt;0.9,E31&gt;=0.7),"Boa",AND(E31&lt;0.7,E31&gt;=0.5),"Médio",AND(E31&lt;0.5,E31&gt;=0.25),"Baixo",AND(E31&lt;0.25,E31&gt;0),"Muito Baixo",E31=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K31" s="28"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="16">
+      <c r="A32" s="23">
         <v>30</v>
       </c>
       <c r="B32" s="2">
@@ -2606,29 +2959,29 @@
       <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="20">
         <v>13</v>
       </c>
-      <c r="G32" s="13" t="str" cm="1">
+      <c r="G32" s="12" t="str" cm="1">
         <f t="array" ref="G32">_xlfn.IFS(AND(B32&lt;=1,B32&gt;=0.95),"Muito Alta",AND(B32&lt;0.95,B32&gt;=0.9),"Alta",AND(B32&lt;0.9,B32&gt;=0.7),"Boa",AND(B32&lt;0.7,B32&gt;=0.5),"Médio",AND(B32&lt;0.5,B32&gt;=0.25),"Baixo",AND(B32&lt;0.25,B32&gt;0),"Muito Baixo",B32=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H32" s="13" t="str" cm="1">
+      <c r="H32" s="12" t="str" cm="1">
         <f t="array" ref="H32">_xlfn.IFS(AND(C32&lt;=1,C32&gt;=0.95),"Muito Alta",AND(C32&lt;0.95,C32&gt;=0.9),"Alta",AND(C32&lt;0.9,C32&gt;=0.7),"Boa",AND(C32&lt;0.7,C32&gt;=0.5),"Médio",AND(C32&lt;0.5,C32&gt;=0.25),"Baixo",AND(C32&lt;0.25,C32&gt;0),"Muito Baixo",C32=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I32" s="13" t="str" cm="1">
+      <c r="I32" s="12" t="str" cm="1">
         <f t="array" ref="I32">_xlfn.IFS(AND(D32&lt;=1,D32&gt;=0.95),"Muito Alta",AND(D32&lt;0.95,D32&gt;=0.9),"Alta",AND(D32&lt;0.9,D32&gt;=0.7),"Boa",AND(D32&lt;0.7,D32&gt;=0.5),"Médio",AND(D32&lt;0.5,D32&gt;=0.25),"Baixo",AND(D32&lt;0.25,D32&gt;0),"Muito Baixo",D32=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J32" s="13" t="str" cm="1">
+      <c r="J32" s="24" t="str" cm="1">
         <f t="array" ref="J32">_xlfn.IFS(AND(E32&lt;=1,E32&gt;=0.95),"Muito Alta",AND(E32&lt;0.95,E32&gt;=0.9),"Alta",AND(E32&lt;0.9,E32&gt;=0.7),"Boa",AND(E32&lt;0.7,E32&gt;=0.5),"Médio",AND(E32&lt;0.5,E32&gt;=0.25),"Baixo",AND(E32&lt;0.25,E32&gt;0),"Muito Baixo",E32=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K32" s="28"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="16">
+      <c r="A33" s="23">
         <v>31</v>
       </c>
       <c r="B33" s="2">
@@ -2643,29 +2996,29 @@
       <c r="E33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="20">
         <v>8</v>
       </c>
-      <c r="G33" s="13" t="str" cm="1">
+      <c r="G33" s="12" t="str" cm="1">
         <f t="array" ref="G33">_xlfn.IFS(AND(B33&lt;=1,B33&gt;=0.95),"Muito Alta",AND(B33&lt;0.95,B33&gt;=0.9),"Alta",AND(B33&lt;0.9,B33&gt;=0.7),"Boa",AND(B33&lt;0.7,B33&gt;=0.5),"Médio",AND(B33&lt;0.5,B33&gt;=0.25),"Baixo",AND(B33&lt;0.25,B33&gt;0),"Muito Baixo",B33=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H33" s="13" t="str" cm="1">
+      <c r="H33" s="12" t="str" cm="1">
         <f t="array" ref="H33">_xlfn.IFS(AND(C33&lt;=1,C33&gt;=0.95),"Muito Alta",AND(C33&lt;0.95,C33&gt;=0.9),"Alta",AND(C33&lt;0.9,C33&gt;=0.7),"Boa",AND(C33&lt;0.7,C33&gt;=0.5),"Médio",AND(C33&lt;0.5,C33&gt;=0.25),"Baixo",AND(C33&lt;0.25,C33&gt;0),"Muito Baixo",C33=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I33" s="13" t="str" cm="1">
+      <c r="I33" s="12" t="str" cm="1">
         <f t="array" ref="I33">_xlfn.IFS(AND(D33&lt;=1,D33&gt;=0.95),"Muito Alta",AND(D33&lt;0.95,D33&gt;=0.9),"Alta",AND(D33&lt;0.9,D33&gt;=0.7),"Boa",AND(D33&lt;0.7,D33&gt;=0.5),"Médio",AND(D33&lt;0.5,D33&gt;=0.25),"Baixo",AND(D33&lt;0.25,D33&gt;0),"Muito Baixo",D33=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J33" s="13" t="str" cm="1">
+      <c r="J33" s="24" t="str" cm="1">
         <f t="array" ref="J33">_xlfn.IFS(AND(E33&lt;=1,E33&gt;=0.95),"Muito Alta",AND(E33&lt;0.95,E33&gt;=0.9),"Alta",AND(E33&lt;0.9,E33&gt;=0.7),"Boa",AND(E33&lt;0.7,E33&gt;=0.5),"Médio",AND(E33&lt;0.5,E33&gt;=0.25),"Baixo",AND(E33&lt;0.25,E33&gt;0),"Muito Baixo",E33=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K33" s="29"/>
+      <c r="K33" s="38"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="16">
+      <c r="A34" s="23">
         <v>32</v>
       </c>
       <c r="B34" s="2">
@@ -2680,31 +3033,31 @@
       <c r="E34" s="2">
         <v>0.1818181818181818</v>
       </c>
-      <c r="F34" s="23">
+      <c r="F34" s="20">
         <v>44</v>
       </c>
-      <c r="G34" s="13" t="str" cm="1">
+      <c r="G34" s="12" t="str" cm="1">
         <f t="array" ref="G34">_xlfn.IFS(AND(B34&lt;=1,B34&gt;=0.95),"Muito Alta",AND(B34&lt;0.95,B34&gt;=0.9),"Alta",AND(B34&lt;0.9,B34&gt;=0.7),"Boa",AND(B34&lt;0.7,B34&gt;=0.5),"Médio",AND(B34&lt;0.5,B34&gt;=0.25),"Baixo",AND(B34&lt;0.25,B34&gt;0),"Muito Baixo",B34=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H34" s="13" t="str" cm="1">
+      <c r="H34" s="12" t="str" cm="1">
         <f t="array" ref="H34">_xlfn.IFS(AND(C34&lt;=1,C34&gt;=0.95),"Muito Alta",AND(C34&lt;0.95,C34&gt;=0.9),"Alta",AND(C34&lt;0.9,C34&gt;=0.7),"Boa",AND(C34&lt;0.7,C34&gt;=0.5),"Médio",AND(C34&lt;0.5,C34&gt;=0.25),"Baixo",AND(C34&lt;0.25,C34&gt;0),"Muito Baixo",C34=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="I34" s="13" t="str" cm="1">
+      <c r="I34" s="12" t="str" cm="1">
         <f t="array" ref="I34">_xlfn.IFS(AND(D34&lt;=1,D34&gt;=0.95),"Muito Alta",AND(D34&lt;0.95,D34&gt;=0.9),"Alta",AND(D34&lt;0.9,D34&gt;=0.7),"Boa",AND(D34&lt;0.7,D34&gt;=0.5),"Médio",AND(D34&lt;0.5,D34&gt;=0.25),"Baixo",AND(D34&lt;0.25,D34&gt;0),"Muito Baixo",D34=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="J34" s="13" t="str" cm="1">
+      <c r="J34" s="24" t="str" cm="1">
         <f t="array" ref="J34">_xlfn.IFS(AND(E34&lt;=1,E34&gt;=0.95),"Muito Alta",AND(E34&lt;0.95,E34&gt;=0.9),"Alta",AND(E34&lt;0.9,E34&gt;=0.7),"Boa",AND(E34&lt;0.7,E34&gt;=0.5),"Médio",AND(E34&lt;0.5,E34&gt;=0.25),"Baixo",AND(E34&lt;0.25,E34&gt;0),"Muito Baixo",E34=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>36</v>
+      <c r="K34" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="16">
+      <c r="A35" s="23">
         <v>33</v>
       </c>
       <c r="B35" s="8">
@@ -2719,31 +3072,31 @@
       <c r="E35" s="5">
         <v>0.88221153846153855</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="20">
         <v>3904</v>
       </c>
-      <c r="G35" s="13" t="str" cm="1">
+      <c r="G35" s="12" t="str" cm="1">
         <f t="array" ref="G35">_xlfn.IFS(AND(B35&lt;=1,B35&gt;=0.95),"Muito Alta",AND(B35&lt;0.95,B35&gt;=0.9),"Alta",AND(B35&lt;0.9,B35&gt;=0.7),"Boa",AND(B35&lt;0.7,B35&gt;=0.5),"Médio",AND(B35&lt;0.5,B35&gt;=0.25),"Baixo",AND(B35&lt;0.25,B35&gt;0),"Muito Baixo",B35=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="H35" s="13" t="str" cm="1">
+      <c r="H35" s="12" t="str" cm="1">
         <f t="array" ref="H35">_xlfn.IFS(AND(C35&lt;=1,C35&gt;=0.95),"Muito Alta",AND(C35&lt;0.95,C35&gt;=0.9),"Alta",AND(C35&lt;0.9,C35&gt;=0.7),"Boa",AND(C35&lt;0.7,C35&gt;=0.5),"Médio",AND(C35&lt;0.5,C35&gt;=0.25),"Baixo",AND(C35&lt;0.25,C35&gt;0),"Muito Baixo",C35=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="I35" s="13" t="str" cm="1">
+      <c r="I35" s="12" t="str" cm="1">
         <f t="array" ref="I35">_xlfn.IFS(AND(D35&lt;=1,D35&gt;=0.95),"Muito Alta",AND(D35&lt;0.95,D35&gt;=0.9),"Alta",AND(D35&lt;0.9,D35&gt;=0.7),"Boa",AND(D35&lt;0.7,D35&gt;=0.5),"Médio",AND(D35&lt;0.5,D35&gt;=0.25),"Baixo",AND(D35&lt;0.25,D35&gt;0),"Muito Baixo",D35=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="J35" s="13" t="str" cm="1">
+      <c r="J35" s="24" t="str" cm="1">
         <f t="array" ref="J35">_xlfn.IFS(AND(E35&lt;=1,E35&gt;=0.95),"Muito Alta",AND(E35&lt;0.95,E35&gt;=0.9),"Alta",AND(E35&lt;0.9,E35&gt;=0.7),"Boa",AND(E35&lt;0.7,E35&gt;=0.5),"Médio",AND(E35&lt;0.5,E35&gt;=0.25),"Baixo",AND(E35&lt;0.25,E35&gt;0),"Muito Baixo",E35=0,"Zero")</f>
         <v>Boa</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>34</v>
+      <c r="K35" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="16">
+      <c r="A36" s="23">
         <v>34</v>
       </c>
       <c r="B36" s="2">
@@ -2758,31 +3111,31 @@
       <c r="E36" s="2">
         <v>0.1176470588235294</v>
       </c>
-      <c r="F36" s="23">
+      <c r="F36" s="20">
         <v>241</v>
       </c>
-      <c r="G36" s="13" t="str" cm="1">
+      <c r="G36" s="12" t="str" cm="1">
         <f t="array" ref="G36">_xlfn.IFS(AND(B36&lt;=1,B36&gt;=0.95),"Muito Alta",AND(B36&lt;0.95,B36&gt;=0.9),"Alta",AND(B36&lt;0.9,B36&gt;=0.7),"Boa",AND(B36&lt;0.7,B36&gt;=0.5),"Médio",AND(B36&lt;0.5,B36&gt;=0.25),"Baixo",AND(B36&lt;0.25,B36&gt;0),"Muito Baixo",B36=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H36" s="13" t="str" cm="1">
+      <c r="H36" s="12" t="str" cm="1">
         <f t="array" ref="H36">_xlfn.IFS(AND(C36&lt;=1,C36&gt;=0.95),"Muito Alta",AND(C36&lt;0.95,C36&gt;=0.9),"Alta",AND(C36&lt;0.9,C36&gt;=0.7),"Boa",AND(C36&lt;0.7,C36&gt;=0.5),"Médio",AND(C36&lt;0.5,C36&gt;=0.25),"Baixo",AND(C36&lt;0.25,C36&gt;0),"Muito Baixo",C36=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="I36" s="13" t="str" cm="1">
+      <c r="I36" s="12" t="str" cm="1">
         <f t="array" ref="I36">_xlfn.IFS(AND(D36&lt;=1,D36&gt;=0.95),"Muito Alta",AND(D36&lt;0.95,D36&gt;=0.9),"Alta",AND(D36&lt;0.9,D36&gt;=0.7),"Boa",AND(D36&lt;0.7,D36&gt;=0.5),"Médio",AND(D36&lt;0.5,D36&gt;=0.25),"Baixo",AND(D36&lt;0.25,D36&gt;0),"Muito Baixo",D36=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="J36" s="13" t="str" cm="1">
+      <c r="J36" s="24" t="str" cm="1">
         <f t="array" ref="J36">_xlfn.IFS(AND(E36&lt;=1,E36&gt;=0.95),"Muito Alta",AND(E36&lt;0.95,E36&gt;=0.9),"Alta",AND(E36&lt;0.9,E36&gt;=0.7),"Boa",AND(E36&lt;0.7,E36&gt;=0.5),"Médio",AND(E36&lt;0.5,E36&gt;=0.25),"Baixo",AND(E36&lt;0.25,E36&gt;0),"Muito Baixo",E36=0,"Zero")</f>
         <v>Muito Baixo</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>36</v>
+      <c r="K36" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="16">
+      <c r="A37" s="23">
         <v>35</v>
       </c>
       <c r="B37" s="2">
@@ -2797,31 +3150,31 @@
       <c r="E37" s="2">
         <v>0</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="20">
         <v>32</v>
       </c>
-      <c r="G37" s="13" t="str" cm="1">
+      <c r="G37" s="12" t="str" cm="1">
         <f t="array" ref="G37">_xlfn.IFS(AND(B37&lt;=1,B37&gt;=0.95),"Muito Alta",AND(B37&lt;0.95,B37&gt;=0.9),"Alta",AND(B37&lt;0.9,B37&gt;=0.7),"Boa",AND(B37&lt;0.7,B37&gt;=0.5),"Médio",AND(B37&lt;0.5,B37&gt;=0.25),"Baixo",AND(B37&lt;0.25,B37&gt;0),"Muito Baixo",B37=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H37" s="13" t="str" cm="1">
+      <c r="H37" s="12" t="str" cm="1">
         <f t="array" ref="H37">_xlfn.IFS(AND(C37&lt;=1,C37&gt;=0.95),"Muito Alta",AND(C37&lt;0.95,C37&gt;=0.9),"Alta",AND(C37&lt;0.9,C37&gt;=0.7),"Boa",AND(C37&lt;0.7,C37&gt;=0.5),"Médio",AND(C37&lt;0.5,C37&gt;=0.25),"Baixo",AND(C37&lt;0.25,C37&gt;0),"Muito Baixo",C37=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I37" s="13" t="str" cm="1">
+      <c r="I37" s="12" t="str" cm="1">
         <f t="array" ref="I37">_xlfn.IFS(AND(D37&lt;=1,D37&gt;=0.95),"Muito Alta",AND(D37&lt;0.95,D37&gt;=0.9),"Alta",AND(D37&lt;0.9,D37&gt;=0.7),"Boa",AND(D37&lt;0.7,D37&gt;=0.5),"Médio",AND(D37&lt;0.5,D37&gt;=0.25),"Baixo",AND(D37&lt;0.25,D37&gt;0),"Muito Baixo",D37=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J37" s="13" t="str" cm="1">
+      <c r="J37" s="24" t="str" cm="1">
         <f t="array" ref="J37">_xlfn.IFS(AND(E37&lt;=1,E37&gt;=0.95),"Muito Alta",AND(E37&lt;0.95,E37&gt;=0.9),"Alta",AND(E37&lt;0.9,E37&gt;=0.7),"Boa",AND(E37&lt;0.7,E37&gt;=0.5),"Médio",AND(E37&lt;0.5,E37&gt;=0.25),"Baixo",AND(E37&lt;0.25,E37&gt;0),"Muito Baixo",E37=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>35</v>
+      <c r="K37" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="16">
+      <c r="A38" s="23">
         <v>36</v>
       </c>
       <c r="B38" s="2">
@@ -2836,31 +3189,31 @@
       <c r="E38" s="2">
         <v>0.47058823529411759</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="20">
         <v>124</v>
       </c>
-      <c r="G38" s="13" t="str" cm="1">
+      <c r="G38" s="12" t="str" cm="1">
         <f t="array" ref="G38">_xlfn.IFS(AND(B38&lt;=1,B38&gt;=0.95),"Muito Alta",AND(B38&lt;0.95,B38&gt;=0.9),"Alta",AND(B38&lt;0.9,B38&gt;=0.7),"Boa",AND(B38&lt;0.7,B38&gt;=0.5),"Médio",AND(B38&lt;0.5,B38&gt;=0.25),"Baixo",AND(B38&lt;0.25,B38&gt;0),"Muito Baixo",B38=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H38" s="13" t="str" cm="1">
+      <c r="H38" s="12" t="str" cm="1">
         <f t="array" ref="H38">_xlfn.IFS(AND(C38&lt;=1,C38&gt;=0.95),"Muito Alta",AND(C38&lt;0.95,C38&gt;=0.9),"Alta",AND(C38&lt;0.9,C38&gt;=0.7),"Boa",AND(C38&lt;0.7,C38&gt;=0.5),"Médio",AND(C38&lt;0.5,C38&gt;=0.25),"Baixo",AND(C38&lt;0.25,C38&gt;0),"Muito Baixo",C38=0,"Zero")</f>
         <v>Médio</v>
       </c>
-      <c r="I38" s="13" t="str" cm="1">
+      <c r="I38" s="12" t="str" cm="1">
         <f t="array" ref="I38">_xlfn.IFS(AND(D38&lt;=1,D38&gt;=0.95),"Muito Alta",AND(D38&lt;0.95,D38&gt;=0.9),"Alta",AND(D38&lt;0.9,D38&gt;=0.7),"Boa",AND(D38&lt;0.7,D38&gt;=0.5),"Médio",AND(D38&lt;0.5,D38&gt;=0.25),"Baixo",AND(D38&lt;0.25,D38&gt;0),"Muito Baixo",D38=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="J38" s="13" t="str" cm="1">
+      <c r="J38" s="24" t="str" cm="1">
         <f t="array" ref="J38">_xlfn.IFS(AND(E38&lt;=1,E38&gt;=0.95),"Muito Alta",AND(E38&lt;0.95,E38&gt;=0.9),"Alta",AND(E38&lt;0.9,E38&gt;=0.7),"Boa",AND(E38&lt;0.7,E38&gt;=0.5),"Médio",AND(E38&lt;0.5,E38&gt;=0.25),"Baixo",AND(E38&lt;0.25,E38&gt;0),"Muito Baixo",E38=0,"Zero")</f>
         <v>Baixo</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>36</v>
+      <c r="K38" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="16">
+      <c r="A39" s="23">
         <v>37</v>
       </c>
       <c r="B39" s="2">
@@ -2875,31 +3228,31 @@
       <c r="E39" s="2">
         <v>0</v>
       </c>
-      <c r="F39" s="23">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="str" cm="1">
+      <c r="F39" s="20">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12" t="str" cm="1">
         <f t="array" ref="G39">_xlfn.IFS(AND(B39&lt;=1,B39&gt;=0.95),"Muito Alta",AND(B39&lt;0.95,B39&gt;=0.9),"Alta",AND(B39&lt;0.9,B39&gt;=0.7),"Boa",AND(B39&lt;0.7,B39&gt;=0.5),"Médio",AND(B39&lt;0.5,B39&gt;=0.25),"Baixo",AND(B39&lt;0.25,B39&gt;0),"Muito Baixo",B39=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H39" s="13" t="str" cm="1">
+      <c r="H39" s="12" t="str" cm="1">
         <f t="array" ref="H39">_xlfn.IFS(AND(C39&lt;=1,C39&gt;=0.95),"Muito Alta",AND(C39&lt;0.95,C39&gt;=0.9),"Alta",AND(C39&lt;0.9,C39&gt;=0.7),"Boa",AND(C39&lt;0.7,C39&gt;=0.5),"Médio",AND(C39&lt;0.5,C39&gt;=0.25),"Baixo",AND(C39&lt;0.25,C39&gt;0),"Muito Baixo",C39=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I39" s="13" t="str" cm="1">
+      <c r="I39" s="12" t="str" cm="1">
         <f t="array" ref="I39">_xlfn.IFS(AND(D39&lt;=1,D39&gt;=0.95),"Muito Alta",AND(D39&lt;0.95,D39&gt;=0.9),"Alta",AND(D39&lt;0.9,D39&gt;=0.7),"Boa",AND(D39&lt;0.7,D39&gt;=0.5),"Médio",AND(D39&lt;0.5,D39&gt;=0.25),"Baixo",AND(D39&lt;0.25,D39&gt;0),"Muito Baixo",D39=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J39" s="13" t="str" cm="1">
+      <c r="J39" s="24" t="str" cm="1">
         <f t="array" ref="J39">_xlfn.IFS(AND(E39&lt;=1,E39&gt;=0.95),"Muito Alta",AND(E39&lt;0.95,E39&gt;=0.9),"Alta",AND(E39&lt;0.9,E39&gt;=0.7),"Boa",AND(E39&lt;0.7,E39&gt;=0.5),"Médio",AND(E39&lt;0.5,E39&gt;=0.25),"Baixo",AND(E39&lt;0.25,E39&gt;0),"Muito Baixo",E39=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K39" s="27" t="s">
-        <v>35</v>
+      <c r="K39" s="36" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="16">
+      <c r="A40" s="23">
         <v>38</v>
       </c>
       <c r="B40" s="2">
@@ -2914,29 +3267,29 @@
       <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="20">
         <v>17</v>
       </c>
-      <c r="G40" s="13" t="str" cm="1">
+      <c r="G40" s="12" t="str" cm="1">
         <f t="array" ref="G40">_xlfn.IFS(AND(B40&lt;=1,B40&gt;=0.95),"Muito Alta",AND(B40&lt;0.95,B40&gt;=0.9),"Alta",AND(B40&lt;0.9,B40&gt;=0.7),"Boa",AND(B40&lt;0.7,B40&gt;=0.5),"Médio",AND(B40&lt;0.5,B40&gt;=0.25),"Baixo",AND(B40&lt;0.25,B40&gt;0),"Muito Baixo",B40=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H40" s="13" t="str" cm="1">
+      <c r="H40" s="12" t="str" cm="1">
         <f t="array" ref="H40">_xlfn.IFS(AND(C40&lt;=1,C40&gt;=0.95),"Muito Alta",AND(C40&lt;0.95,C40&gt;=0.9),"Alta",AND(C40&lt;0.9,C40&gt;=0.7),"Boa",AND(C40&lt;0.7,C40&gt;=0.5),"Médio",AND(C40&lt;0.5,C40&gt;=0.25),"Baixo",AND(C40&lt;0.25,C40&gt;0),"Muito Baixo",C40=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I40" s="13" t="str" cm="1">
+      <c r="I40" s="12" t="str" cm="1">
         <f t="array" ref="I40">_xlfn.IFS(AND(D40&lt;=1,D40&gt;=0.95),"Muito Alta",AND(D40&lt;0.95,D40&gt;=0.9),"Alta",AND(D40&lt;0.9,D40&gt;=0.7),"Boa",AND(D40&lt;0.7,D40&gt;=0.5),"Médio",AND(D40&lt;0.5,D40&gt;=0.25),"Baixo",AND(D40&lt;0.25,D40&gt;0),"Muito Baixo",D40=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J40" s="13" t="str" cm="1">
+      <c r="J40" s="24" t="str" cm="1">
         <f t="array" ref="J40">_xlfn.IFS(AND(E40&lt;=1,E40&gt;=0.95),"Muito Alta",AND(E40&lt;0.95,E40&gt;=0.9),"Alta",AND(E40&lt;0.9,E40&gt;=0.7),"Boa",AND(E40&lt;0.7,E40&gt;=0.5),"Médio",AND(E40&lt;0.5,E40&gt;=0.25),"Baixo",AND(E40&lt;0.25,E40&gt;0),"Muito Baixo",E40=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K40" s="28"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="16">
+      <c r="A41" s="23">
         <v>39</v>
       </c>
       <c r="B41" s="2">
@@ -2951,29 +3304,29 @@
       <c r="E41" s="2">
         <v>0</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="20">
         <v>4</v>
       </c>
-      <c r="G41" s="13" t="str" cm="1">
+      <c r="G41" s="12" t="str" cm="1">
         <f t="array" ref="G41">_xlfn.IFS(AND(B41&lt;=1,B41&gt;=0.95),"Muito Alta",AND(B41&lt;0.95,B41&gt;=0.9),"Alta",AND(B41&lt;0.9,B41&gt;=0.7),"Boa",AND(B41&lt;0.7,B41&gt;=0.5),"Médio",AND(B41&lt;0.5,B41&gt;=0.25),"Baixo",AND(B41&lt;0.25,B41&gt;0),"Muito Baixo",B41=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H41" s="13" t="str" cm="1">
+      <c r="H41" s="12" t="str" cm="1">
         <f t="array" ref="H41">_xlfn.IFS(AND(C41&lt;=1,C41&gt;=0.95),"Muito Alta",AND(C41&lt;0.95,C41&gt;=0.9),"Alta",AND(C41&lt;0.9,C41&gt;=0.7),"Boa",AND(C41&lt;0.7,C41&gt;=0.5),"Médio",AND(C41&lt;0.5,C41&gt;=0.25),"Baixo",AND(C41&lt;0.25,C41&gt;0),"Muito Baixo",C41=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I41" s="13" t="str" cm="1">
+      <c r="I41" s="12" t="str" cm="1">
         <f t="array" ref="I41">_xlfn.IFS(AND(D41&lt;=1,D41&gt;=0.95),"Muito Alta",AND(D41&lt;0.95,D41&gt;=0.9),"Alta",AND(D41&lt;0.9,D41&gt;=0.7),"Boa",AND(D41&lt;0.7,D41&gt;=0.5),"Médio",AND(D41&lt;0.5,D41&gt;=0.25),"Baixo",AND(D41&lt;0.25,D41&gt;0),"Muito Baixo",D41=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J41" s="13" t="str" cm="1">
+      <c r="J41" s="24" t="str" cm="1">
         <f t="array" ref="J41">_xlfn.IFS(AND(E41&lt;=1,E41&gt;=0.95),"Muito Alta",AND(E41&lt;0.95,E41&gt;=0.9),"Alta",AND(E41&lt;0.9,E41&gt;=0.7),"Boa",AND(E41&lt;0.7,E41&gt;=0.5),"Médio",AND(E41&lt;0.5,E41&gt;=0.25),"Baixo",AND(E41&lt;0.25,E41&gt;0),"Muito Baixo",E41=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K41" s="28"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="16">
+      <c r="A42" s="23">
         <v>40</v>
       </c>
       <c r="B42" s="2">
@@ -2988,29 +3341,29 @@
       <c r="E42" s="2">
         <v>0</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="20">
         <v>5</v>
       </c>
-      <c r="G42" s="13" t="str" cm="1">
+      <c r="G42" s="12" t="str" cm="1">
         <f t="array" ref="G42">_xlfn.IFS(AND(B42&lt;=1,B42&gt;=0.95),"Muito Alta",AND(B42&lt;0.95,B42&gt;=0.9),"Alta",AND(B42&lt;0.9,B42&gt;=0.7),"Boa",AND(B42&lt;0.7,B42&gt;=0.5),"Médio",AND(B42&lt;0.5,B42&gt;=0.25),"Baixo",AND(B42&lt;0.25,B42&gt;0),"Muito Baixo",B42=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H42" s="13" t="str" cm="1">
+      <c r="H42" s="12" t="str" cm="1">
         <f t="array" ref="H42">_xlfn.IFS(AND(C42&lt;=1,C42&gt;=0.95),"Muito Alta",AND(C42&lt;0.95,C42&gt;=0.9),"Alta",AND(C42&lt;0.9,C42&gt;=0.7),"Boa",AND(C42&lt;0.7,C42&gt;=0.5),"Médio",AND(C42&lt;0.5,C42&gt;=0.25),"Baixo",AND(C42&lt;0.25,C42&gt;0),"Muito Baixo",C42=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I42" s="13" t="str" cm="1">
+      <c r="I42" s="12" t="str" cm="1">
         <f t="array" ref="I42">_xlfn.IFS(AND(D42&lt;=1,D42&gt;=0.95),"Muito Alta",AND(D42&lt;0.95,D42&gt;=0.9),"Alta",AND(D42&lt;0.9,D42&gt;=0.7),"Boa",AND(D42&lt;0.7,D42&gt;=0.5),"Médio",AND(D42&lt;0.5,D42&gt;=0.25),"Baixo",AND(D42&lt;0.25,D42&gt;0),"Muito Baixo",D42=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J42" s="13" t="str" cm="1">
+      <c r="J42" s="24" t="str" cm="1">
         <f t="array" ref="J42">_xlfn.IFS(AND(E42&lt;=1,E42&gt;=0.95),"Muito Alta",AND(E42&lt;0.95,E42&gt;=0.9),"Alta",AND(E42&lt;0.9,E42&gt;=0.7),"Boa",AND(E42&lt;0.7,E42&gt;=0.5),"Médio",AND(E42&lt;0.5,E42&gt;=0.25),"Baixo",AND(E42&lt;0.25,E42&gt;0),"Muito Baixo",E42=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K42" s="28"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="16">
+      <c r="A43" s="23">
         <v>41</v>
       </c>
       <c r="B43" s="2">
@@ -3025,63 +3378,63 @@
       <c r="E43" s="2">
         <v>0</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="20">
         <v>2</v>
       </c>
-      <c r="G43" s="13" t="str" cm="1">
+      <c r="G43" s="12" t="str" cm="1">
         <f t="array" ref="G43">_xlfn.IFS(AND(B43&lt;=1,B43&gt;=0.95),"Muito Alta",AND(B43&lt;0.95,B43&gt;=0.9),"Alta",AND(B43&lt;0.9,B43&gt;=0.7),"Boa",AND(B43&lt;0.7,B43&gt;=0.5),"Médio",AND(B43&lt;0.5,B43&gt;=0.25),"Baixo",AND(B43&lt;0.25,B43&gt;0),"Muito Baixo",B43=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H43" s="13" t="str" cm="1">
+      <c r="H43" s="12" t="str" cm="1">
         <f t="array" ref="H43">_xlfn.IFS(AND(C43&lt;=1,C43&gt;=0.95),"Muito Alta",AND(C43&lt;0.95,C43&gt;=0.9),"Alta",AND(C43&lt;0.9,C43&gt;=0.7),"Boa",AND(C43&lt;0.7,C43&gt;=0.5),"Médio",AND(C43&lt;0.5,C43&gt;=0.25),"Baixo",AND(C43&lt;0.25,C43&gt;0),"Muito Baixo",C43=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I43" s="13" t="str" cm="1">
+      <c r="I43" s="12" t="str" cm="1">
         <f t="array" ref="I43">_xlfn.IFS(AND(D43&lt;=1,D43&gt;=0.95),"Muito Alta",AND(D43&lt;0.95,D43&gt;=0.9),"Alta",AND(D43&lt;0.9,D43&gt;=0.7),"Boa",AND(D43&lt;0.7,D43&gt;=0.5),"Médio",AND(D43&lt;0.5,D43&gt;=0.25),"Baixo",AND(D43&lt;0.25,D43&gt;0),"Muito Baixo",D43=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J43" s="13" t="str" cm="1">
+      <c r="J43" s="24" t="str" cm="1">
         <f t="array" ref="J43">_xlfn.IFS(AND(E43&lt;=1,E43&gt;=0.95),"Muito Alta",AND(E43&lt;0.95,E43&gt;=0.9),"Alta",AND(E43&lt;0.9,E43&gt;=0.7),"Boa",AND(E43&lt;0.7,E43&gt;=0.5),"Médio",AND(E43&lt;0.5,E43&gt;=0.25),"Baixo",AND(E43&lt;0.25,E43&gt;0),"Muito Baixo",E43=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K43" s="28"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="16">
+      <c r="A44" s="30">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="31">
         <v>0.99845440494590421</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
+      <c r="C44" s="31">
+        <v>0</v>
+      </c>
+      <c r="D44" s="31">
+        <v>0</v>
+      </c>
+      <c r="E44" s="31">
+        <v>0</v>
+      </c>
+      <c r="F44" s="32">
         <v>2</v>
       </c>
-      <c r="G44" s="13" t="str" cm="1">
+      <c r="G44" s="33" t="str" cm="1">
         <f t="array" ref="G44">_xlfn.IFS(AND(B44&lt;=1,B44&gt;=0.95),"Muito Alta",AND(B44&lt;0.95,B44&gt;=0.9),"Alta",AND(B44&lt;0.9,B44&gt;=0.7),"Boa",AND(B44&lt;0.7,B44&gt;=0.5),"Médio",AND(B44&lt;0.5,B44&gt;=0.25),"Baixo",AND(B44&lt;0.25,B44&gt;0),"Muito Baixo",B44=0,"Zero")</f>
         <v>Muito Alta</v>
       </c>
-      <c r="H44" s="13" t="str" cm="1">
+      <c r="H44" s="33" t="str" cm="1">
         <f t="array" ref="H44">_xlfn.IFS(AND(C44&lt;=1,C44&gt;=0.95),"Muito Alta",AND(C44&lt;0.95,C44&gt;=0.9),"Alta",AND(C44&lt;0.9,C44&gt;=0.7),"Boa",AND(C44&lt;0.7,C44&gt;=0.5),"Médio",AND(C44&lt;0.5,C44&gt;=0.25),"Baixo",AND(C44&lt;0.25,C44&gt;0),"Muito Baixo",C44=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="I44" s="13" t="str" cm="1">
+      <c r="I44" s="33" t="str" cm="1">
         <f t="array" ref="I44">_xlfn.IFS(AND(D44&lt;=1,D44&gt;=0.95),"Muito Alta",AND(D44&lt;0.95,D44&gt;=0.9),"Alta",AND(D44&lt;0.9,D44&gt;=0.7),"Boa",AND(D44&lt;0.7,D44&gt;=0.5),"Médio",AND(D44&lt;0.5,D44&gt;=0.25),"Baixo",AND(D44&lt;0.25,D44&gt;0),"Muito Baixo",D44=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="J44" s="13" t="str" cm="1">
+      <c r="J44" s="34" t="str" cm="1">
         <f t="array" ref="J44">_xlfn.IFS(AND(E44&lt;=1,E44&gt;=0.95),"Muito Alta",AND(E44&lt;0.95,E44&gt;=0.9),"Alta",AND(E44&lt;0.9,E44&gt;=0.7),"Boa",AND(E44&lt;0.7,E44&gt;=0.5),"Médio",AND(E44&lt;0.5,E44&gt;=0.25),"Baixo",AND(E44&lt;0.25,E44&gt;0),"Muito Baixo",E44=0,"Zero")</f>
         <v>Zero</v>
       </c>
-      <c r="K44" s="29"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
@@ -3103,24 +3456,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="11">
         <f>COUNTIF(G2:G44,$K$45)</f>
         <v>41</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <f t="shared" ref="H45:J45" si="1">COUNTIF(H2:H44,$K$45)</f>
         <v>3</v>
       </c>
-      <c r="I45" s="12">
+      <c r="I45" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -3143,19 +3496,19 @@
         <f t="shared" si="2"/>
         <v>0.88221153846153855</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f>COUNTIF(G2:G44,$K$46)</f>
         <v>1</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f t="shared" ref="H46:J46" si="3">COUNTIF(H2:H44,$K$46)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="12">
+      <c r="I46" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3164,7 +3517,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="17">
+      <c r="A47" s="15">
         <v>0</v>
       </c>
       <c r="B47">
@@ -3183,28 +3536,28 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f>COUNTIF(G2:G44,$K$47)</f>
         <v>1</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <f t="shared" ref="H47:J47" si="5">COUNTIF(H2:H44,$K$47)</f>
         <v>2</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="17">
+      <c r="A48" s="15">
         <v>1</v>
       </c>
       <c r="B48">
@@ -3223,19 +3576,19 @@
         <f>COUNTIF(E2:E44,"=1")</f>
         <v>0</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="11">
         <f>COUNTIF(G2:G44,$K$48)</f>
         <v>0</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <f t="shared" ref="H48:J48" si="6">COUNTIF(H2:H44,$K$48)</f>
         <v>4</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="11">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3244,7 +3597,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="9">
@@ -3263,28 +3616,28 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="11">
         <f>COUNTIF(G2:G44,$K$49)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <f>COUNTIF(H2:H44,$K$49)</f>
         <v>1</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="11">
         <f>COUNTIF(I2:I44,$K$49)</f>
         <v>3</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <f>COUNTIF(J2:J44,$K$49)</f>
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B50" s="7">
@@ -3303,29 +3656,29 @@
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="12">
+      <c r="F50" s="22"/>
+      <c r="G50" s="11">
         <f>COUNTIF(G2:G44,$K$50)</f>
         <v>0</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <f t="shared" ref="H50:J50" si="9">COUNTIF(H2:H44,$K$50)</f>
         <v>2</v>
       </c>
-      <c r="I50" s="12">
+      <c r="I50" s="11">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="17"/>
+      <c r="A51" s="15"/>
       <c r="G51">
         <f>SUM(G45:G50)+B47</f>
         <v>43</v>
@@ -3353,6 +3706,9 @@
     <mergeCell ref="K9:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Modelos/Modelo 1/Modelo 1.xlsx
+++ b/Modelos/Modelo 1/Modelo 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Modelos\Modelo 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F22506-B663-4FA3-9898-B331C9D6035D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2810C05D-A035-4AB7-B4C6-DC82DE033851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1750,9 +1750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A3FDBD-7C69-45E8-9D25-BDE932A4141A}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:E44"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
